--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03646020042922023</v>
+        <v>0.03506179622947712</v>
       </c>
       <c r="F2">
-        <v>0.1874935731250425</v>
+        <v>0.1914162202981033</v>
       </c>
       <c r="G2">
-        <v>0.2663658411335913</v>
+        <v>0.2730672343709956</v>
       </c>
       <c r="H2">
-        <v>0.2838937758016715</v>
+        <v>0.2912126950809252</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1128397561067585</v>
+        <v>0.1141322773120292</v>
       </c>
       <c r="M2">
-        <v>0.02490907487844918</v>
+        <v>0.02310371338594172</v>
       </c>
       <c r="N2">
-        <v>0.01017883168603257</v>
+        <v>0.007854509520385671</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0003408374543019545</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005539469710326634</v>
+        <v>0.003051698348193329</v>
       </c>
       <c r="S2">
-        <v>0.006668552896578233</v>
+        <v>0.004220560223955581</v>
       </c>
       <c r="T2">
-        <v>0.002591626713728028</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01759711984284027</v>
+        <v>0.01553415112296549</v>
       </c>
       <c r="Y2">
-        <v>0.01074089004420585</v>
+        <v>0.008436369736552134</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03438045017725342</v>
+        <v>0.03290877437047546</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -802,37 +802,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2908232273162981</v>
+        <v>0.2774100873268577</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3586975870839298</v>
+        <v>0.3411856520910673</v>
       </c>
       <c r="H3">
-        <v>0.03855900497585855</v>
+        <v>0.04037959002796526</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01858736019769114</v>
+        <v>0.02161399239495134</v>
       </c>
       <c r="K3">
-        <v>0.1208489869191962</v>
+        <v>0.1177002467654997</v>
       </c>
       <c r="L3">
-        <v>0.03914059201849913</v>
+        <v>0.04092605620799158</v>
       </c>
       <c r="M3">
-        <v>0.02201482564134247</v>
+        <v>0.02483448014801472</v>
       </c>
       <c r="N3">
-        <v>0.01054747066721586</v>
+        <v>0.01405961549617374</v>
       </c>
       <c r="O3">
-        <v>0.0125846300953745</v>
+        <v>0.0159737549958366</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01957770292497812</v>
+        <v>0.02254453033238578</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.002300780140090582</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03610085126994152</v>
+        <v>0.03806987924161241</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.00129372728321139</v>
+        <v>0.005364686917570875</v>
       </c>
       <c r="AB3">
-        <v>0.005792561281552891</v>
+        <v>0.009591845449996288</v>
       </c>
       <c r="AC3">
-        <v>0.02543147232491038</v>
+        <v>0.02804480246398625</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -912,37 +912,37 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3115819456258839</v>
+        <v>0.3086237768961282</v>
       </c>
       <c r="F4">
-        <v>0.05839872578124777</v>
+        <v>0.05850258623175141</v>
       </c>
       <c r="G4">
-        <v>0.3360468485982868</v>
+        <v>0.3327927983056074</v>
       </c>
       <c r="H4">
-        <v>0.009140668295738685</v>
+        <v>0.009840261786828796</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002067701341536079</v>
+        <v>0.002852836169915715</v>
       </c>
       <c r="K4">
-        <v>0.1552259915244661</v>
+        <v>0.154158811045273</v>
       </c>
       <c r="L4">
-        <v>0.03470525542210808</v>
+        <v>0.03509566763408238</v>
       </c>
       <c r="M4">
-        <v>0.03701417222022348</v>
+        <v>0.03737666010682204</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0011142937367423</v>
+        <v>0.001910959194633446</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.009279093643155368</v>
+        <v>0.009977013000970225</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0007521376041576887</v>
       </c>
       <c r="X4">
-        <v>0.02465399748063748</v>
+        <v>0.02516597084952408</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01223352148028301</v>
+        <v>0.01289570962236482</v>
       </c>
       <c r="AC4">
-        <v>0.002759091809743823</v>
+        <v>0.003535864876274059</v>
       </c>
       <c r="AD4">
-        <v>0.005778693039947349</v>
+        <v>0.006518946675666554</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1022,52 +1022,52 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184375685329555</v>
+        <v>0.184642696307576</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3879745534065988</v>
+        <v>0.3887228793205366</v>
       </c>
       <c r="H5">
-        <v>0.111850781774743</v>
+        <v>0.1119463413118177</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02170350158576591</v>
+        <v>0.02158594975931967</v>
       </c>
       <c r="K5">
-        <v>0.04567886471806309</v>
+        <v>0.04561799149930554</v>
       </c>
       <c r="L5">
-        <v>0.1203816505237333</v>
+        <v>0.120497377336707</v>
       </c>
       <c r="M5">
-        <v>0.05030297971788403</v>
+        <v>0.05025303807077927</v>
       </c>
       <c r="N5">
-        <v>0.002593960872364038</v>
+        <v>0.002431233414782215</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001684614241921933</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.005089454327890633</v>
+        <v>0.004932626305231861</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.003235602090665387</v>
+        <v>0.00307439149565154</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04431710709177726</v>
+        <v>0.04425301462975564</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1088,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003901752111189831</v>
+        <v>0.003742116318420554</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01842564502557766</v>
+        <v>0.01830034423011644</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1129,52 +1129,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0146589640158236</v>
+        <v>0.01971310645070827</v>
       </c>
       <c r="E6">
-        <v>0.2314252557623172</v>
+        <v>0.2154421644476021</v>
       </c>
       <c r="F6">
-        <v>0.2524613736564633</v>
+        <v>0.2344367207790268</v>
       </c>
       <c r="G6">
-        <v>0.2021378390062248</v>
+        <v>0.1889971002881967</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004924783326422265</v>
+        <v>0.01092363092221482</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1593934997664758</v>
+        <v>0.1504011120158132</v>
       </c>
       <c r="L6">
-        <v>0.0283228084378554</v>
+        <v>0.03205087066576482</v>
       </c>
       <c r="M6">
-        <v>0.04792730531266454</v>
+        <v>0.04975274522796373</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.001985640830814628</v>
       </c>
       <c r="P6">
-        <v>0.01070484535079365</v>
+        <v>0.01614273619028346</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.003135696703486227</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.00562571090900029</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1186,31 +1186,31 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01448531176682427</v>
+        <v>0.01955630720465469</v>
       </c>
       <c r="X6">
-        <v>0.01493110183893391</v>
+        <v>0.01995883321631166</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.002079728148112107</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01862691175920119</v>
+        <v>0.02329596367327161</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.00449484481475115</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.002007087512023606</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1239,49 +1239,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03144796260457183</v>
+        <v>0.035017877003825</v>
       </c>
       <c r="E7">
-        <v>0.1501553721541416</v>
+        <v>0.131414710148918</v>
       </c>
       <c r="F7">
-        <v>0.03146383649294613</v>
+        <v>0.03503076745922949</v>
       </c>
       <c r="G7">
-        <v>0.1728572334673885</v>
+        <v>0.1498498486579618</v>
       </c>
       <c r="H7">
-        <v>0.1634570514352981</v>
+        <v>0.1422163927320069</v>
       </c>
       <c r="I7">
-        <v>0.06479964125550096</v>
+        <v>0.06210124285454605</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01942295398647182</v>
+        <v>0.02525292000808459</v>
       </c>
       <c r="L7">
-        <v>0.003899381977447679</v>
+        <v>0.01264694042814218</v>
       </c>
       <c r="M7">
-        <v>0.2345901250736683</v>
+        <v>0.1999802935418569</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.008786889762355339</v>
       </c>
       <c r="O7">
-        <v>0.004638523886862506</v>
+        <v>0.01324716361204254</v>
       </c>
       <c r="P7">
-        <v>0.01744391275633482</v>
+        <v>0.02364583155444334</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01047292105786431</v>
+        <v>0.01798500948644358</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1290,49 +1290,49 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.00228640742293699</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01670628798664078</v>
+        <v>0.02304684037000349</v>
       </c>
       <c r="X7">
-        <v>0.03703046393019917</v>
+        <v>0.03955116983584527</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.004678874966679365</v>
       </c>
       <c r="Z7">
-        <v>0.007909160853108197</v>
+        <v>0.01590309761910808</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.003397431979339493</v>
       </c>
       <c r="AB7">
-        <v>0.01997021269501606</v>
+        <v>0.02569732366085497</v>
       </c>
       <c r="AC7">
-        <v>0.01373495838653925</v>
+        <v>0.02063396012295828</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.0002399664653468312</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.002823002927228025</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.001676261403954223</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.002889775975889229</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,70 +1352,70 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0731179171541866</v>
+        <v>0.07458657839567853</v>
       </c>
       <c r="F8">
-        <v>0.1068356944379548</v>
+        <v>0.113405970736636</v>
       </c>
       <c r="G8">
-        <v>0.2652820880757277</v>
+        <v>0.2958258458034153</v>
       </c>
       <c r="H8">
-        <v>0.1881008578862759</v>
+        <v>0.2069668314364031</v>
       </c>
       <c r="I8">
-        <v>0.03189319298754439</v>
+        <v>0.0271244124259475</v>
       </c>
       <c r="J8">
-        <v>0.01819886053385007</v>
+        <v>0.01135808062140764</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04590238981330421</v>
+        <v>0.04325324865925004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1457521469623715</v>
+        <v>0.1582106156676895</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02706487633816352</v>
+        <v>0.02156555494903655</v>
       </c>
       <c r="Q8">
-        <v>0.008333450240973218</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.01262084781601135</v>
+        <v>0.004936095496045535</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01828307338220065</v>
+        <v>0.0114550351618199</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01455917504109214</v>
+        <v>0.00716769826162266</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.00503024543021138</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0195648476971195</v>
+        <v>0.01293074631575027</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01807309477180319</v>
+        <v>0.01121328606929736</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.001387241431209825</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1462,34 +1462,34 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1242589882808096</v>
+        <v>0.1511499165889865</v>
       </c>
       <c r="F9">
-        <v>0.03129178372259624</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.2364507814315564</v>
+        <v>0.3437802640451098</v>
       </c>
       <c r="H9">
-        <v>0.1144109323166648</v>
+        <v>0.134241064445126</v>
       </c>
       <c r="I9">
-        <v>0.0466166212381405</v>
+        <v>0.01784002180328534</v>
       </c>
       <c r="J9">
-        <v>0.03083971220679408</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.003516177855458765</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03622623331437425</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0421574970297369</v>
+        <v>0.01018382323927228</v>
       </c>
       <c r="N9">
-        <v>0.2262628879533209</v>
+        <v>0.3262879198598131</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.04526136206281634</v>
+        <v>0.01551307757230212</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0008438005133995952</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.00684659576935125</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.03681093213770222</v>
+        <v>0.001003912446104834</v>
       </c>
       <c r="AA9">
-        <v>0.004733000838817334</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.00124226565730637</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.01223042767115448</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1572,58 +1572,58 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2776142967912409</v>
+        <v>0.2883909964921616</v>
       </c>
       <c r="F10">
-        <v>0.0414441378094899</v>
+        <v>0.04017319522381945</v>
       </c>
       <c r="G10">
-        <v>0.306188309867175</v>
+        <v>0.318422642868236</v>
       </c>
       <c r="H10">
-        <v>0.01479931268523208</v>
+        <v>0.01216914959825079</v>
       </c>
       <c r="I10">
-        <v>0.005297488823191431</v>
+        <v>0.00218261346157892</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07415470693825639</v>
+        <v>0.07455241392945582</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.05212188844313199</v>
+        <v>0.05139564515653549</v>
       </c>
       <c r="N10">
-        <v>0.08491892664777087</v>
+        <v>0.08586574394618961</v>
       </c>
       <c r="O10">
-        <v>0.01842086291326208</v>
+        <v>0.01597544434209238</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01974064805404056</v>
+        <v>0.01736255508971217</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.003220811946743139</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.03896889064540764</v>
+        <v>0.03757167938746997</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01010057598857142</v>
+        <v>0.007230718356079749</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.03098812152840344</v>
+        <v>0.02918379087863367</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.0002243972451438381</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.02179662367293939</v>
+        <v>0.01952341126978453</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1682,58 +1682,58 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.309005188565485</v>
+        <v>0.3443454889870581</v>
       </c>
       <c r="F11">
-        <v>0.03645064219333949</v>
+        <v>0.03290041258555659</v>
       </c>
       <c r="G11">
-        <v>0.3131662516863252</v>
+        <v>0.3491002899574741</v>
       </c>
       <c r="H11">
-        <v>0.03316832773605088</v>
+        <v>0.02914974802856839</v>
       </c>
       <c r="I11">
-        <v>0.008827822330082785</v>
+        <v>0.001336120750224708</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.05690014935368994</v>
+        <v>0.0562678390501011</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.06818618252115459</v>
+        <v>0.06916426477074038</v>
       </c>
       <c r="N11">
-        <v>0.05612056053444826</v>
+        <v>0.05537701149795687</v>
       </c>
       <c r="O11">
-        <v>0.02474018624627216</v>
+        <v>0.01951900363209532</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.007658544622489684</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.0006887295716804254</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01090125265694401</v>
+        <v>0.0037054067341054</v>
       </c>
       <c r="T11">
-        <v>0.01570437675532925</v>
+        <v>0.009193883707609894</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01462057359510586</v>
+        <v>0.007955433780676447</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.02590263869901098</v>
+        <v>0.02084732523881704</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.007494710676201809</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.001809621254909587</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.008654241001480092</v>
+        <v>0.001137771279015649</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03646020042922023</v>
+        <v>0.03506179622947712</v>
       </c>
       <c r="F2">
-        <v>0.2239537735542627</v>
+        <v>0.2264780165275804</v>
       </c>
       <c r="G2">
-        <v>0.490319614687854</v>
+        <v>0.499545250898576</v>
       </c>
       <c r="H2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="I2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="J2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="K2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="L2">
-        <v>0.887053146596284</v>
+        <v>0.9048902232915305</v>
       </c>
       <c r="M2">
-        <v>0.9119622214747332</v>
+        <v>0.9279939366774722</v>
       </c>
       <c r="N2">
-        <v>0.9221410531607658</v>
+        <v>0.9358484461978579</v>
       </c>
       <c r="O2">
-        <v>0.9221410531607658</v>
+        <v>0.9358484461978579</v>
       </c>
       <c r="P2">
-        <v>0.9221410531607658</v>
+        <v>0.9358484461978579</v>
       </c>
       <c r="Q2">
-        <v>0.9224818906150677</v>
+        <v>0.9358484461978579</v>
       </c>
       <c r="R2">
-        <v>0.9280213603253943</v>
+        <v>0.9389001445460512</v>
       </c>
       <c r="S2">
-        <v>0.9346899132219725</v>
+        <v>0.9431207047700068</v>
       </c>
       <c r="T2">
-        <v>0.9372815399357005</v>
+        <v>0.9431207047700068</v>
       </c>
       <c r="U2">
-        <v>0.9372815399357005</v>
+        <v>0.9431207047700068</v>
       </c>
       <c r="V2">
-        <v>0.9372815399357005</v>
+        <v>0.9431207047700068</v>
       </c>
       <c r="W2">
-        <v>0.9372815399357005</v>
+        <v>0.9431207047700068</v>
       </c>
       <c r="X2">
-        <v>0.9548786597785408</v>
+        <v>0.9586548558929723</v>
       </c>
       <c r="Y2">
-        <v>0.9656195498227467</v>
+        <v>0.9670912256295244</v>
       </c>
       <c r="Z2">
-        <v>0.9656195498227467</v>
+        <v>0.9670912256295244</v>
       </c>
       <c r="AA2">
-        <v>0.9656195498227467</v>
+        <v>0.9670912256295244</v>
       </c>
       <c r="AB2">
-        <v>0.9656195498227467</v>
+        <v>0.9670912256295244</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,76 +2025,76 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2908232273162981</v>
+        <v>0.2774100873268577</v>
       </c>
       <c r="F3">
-        <v>0.2908232273162981</v>
+        <v>0.2774100873268577</v>
       </c>
       <c r="G3">
-        <v>0.6495208144002278</v>
+        <v>0.6185957394179249</v>
       </c>
       <c r="H3">
-        <v>0.6880798193760863</v>
+        <v>0.6589753294458902</v>
       </c>
       <c r="I3">
-        <v>0.6880798193760863</v>
+        <v>0.6589753294458902</v>
       </c>
       <c r="J3">
-        <v>0.7066671795737774</v>
+        <v>0.6805893218408415</v>
       </c>
       <c r="K3">
-        <v>0.8275161664929737</v>
+        <v>0.7982895686063413</v>
       </c>
       <c r="L3">
-        <v>0.8666567585114728</v>
+        <v>0.8392156248143329</v>
       </c>
       <c r="M3">
-        <v>0.8886715841528153</v>
+        <v>0.8640501049623476</v>
       </c>
       <c r="N3">
-        <v>0.8992190548200312</v>
+        <v>0.8781097204585213</v>
       </c>
       <c r="O3">
-        <v>0.9118036849154056</v>
+        <v>0.894083475454358</v>
       </c>
       <c r="P3">
-        <v>0.9118036849154056</v>
+        <v>0.894083475454358</v>
       </c>
       <c r="Q3">
-        <v>0.9118036849154056</v>
+        <v>0.894083475454358</v>
       </c>
       <c r="R3">
-        <v>0.9313813878403837</v>
+        <v>0.9166280057867437</v>
       </c>
       <c r="S3">
-        <v>0.9313813878403837</v>
+        <v>0.9166280057867437</v>
       </c>
       <c r="T3">
-        <v>0.9313813878403837</v>
+        <v>0.9189287859268344</v>
       </c>
       <c r="U3">
-        <v>0.9313813878403837</v>
+        <v>0.9189287859268344</v>
       </c>
       <c r="V3">
-        <v>0.9313813878403837</v>
+        <v>0.9189287859268344</v>
       </c>
       <c r="W3">
-        <v>0.9313813878403837</v>
+        <v>0.9189287859268344</v>
       </c>
       <c r="X3">
-        <v>0.9674822391103253</v>
+        <v>0.9569986651684468</v>
       </c>
       <c r="Y3">
-        <v>0.9674822391103253</v>
+        <v>0.9569986651684468</v>
       </c>
       <c r="Z3">
-        <v>0.9674822391103253</v>
+        <v>0.9569986651684468</v>
       </c>
       <c r="AA3">
-        <v>0.9687759663935367</v>
+        <v>0.9623633520860176</v>
       </c>
       <c r="AB3">
-        <v>0.9745685276750896</v>
+        <v>0.9719551975360139</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2135,79 +2135,79 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3115819456258839</v>
+        <v>0.3086237768961282</v>
       </c>
       <c r="F4">
-        <v>0.3699806714071317</v>
+        <v>0.3671263631278797</v>
       </c>
       <c r="G4">
-        <v>0.7060275200054185</v>
+        <v>0.699919161433487</v>
       </c>
       <c r="H4">
-        <v>0.7151681883011571</v>
+        <v>0.7097594232203158</v>
       </c>
       <c r="I4">
-        <v>0.7151681883011571</v>
+        <v>0.7097594232203158</v>
       </c>
       <c r="J4">
-        <v>0.7172358896426932</v>
+        <v>0.7126122593902315</v>
       </c>
       <c r="K4">
-        <v>0.8724618811671594</v>
+        <v>0.8667710704355046</v>
       </c>
       <c r="L4">
-        <v>0.9071671365892675</v>
+        <v>0.9018667380695869</v>
       </c>
       <c r="M4">
-        <v>0.944181308809491</v>
+        <v>0.939243398176409</v>
       </c>
       <c r="N4">
-        <v>0.944181308809491</v>
+        <v>0.939243398176409</v>
       </c>
       <c r="O4">
-        <v>0.9452956025462333</v>
+        <v>0.9411543573710425</v>
       </c>
       <c r="P4">
-        <v>0.9452956025462333</v>
+        <v>0.9411543573710425</v>
       </c>
       <c r="Q4">
-        <v>0.9452956025462333</v>
+        <v>0.9411543573710425</v>
       </c>
       <c r="R4">
-        <v>0.9545746961893887</v>
+        <v>0.9511313703720127</v>
       </c>
       <c r="S4">
-        <v>0.9545746961893887</v>
+        <v>0.9511313703720127</v>
       </c>
       <c r="T4">
-        <v>0.9545746961893887</v>
+        <v>0.9511313703720127</v>
       </c>
       <c r="U4">
-        <v>0.9545746961893887</v>
+        <v>0.9511313703720127</v>
       </c>
       <c r="V4">
-        <v>0.9545746961893887</v>
+        <v>0.9511313703720127</v>
       </c>
       <c r="W4">
-        <v>0.9545746961893887</v>
+        <v>0.9518835079761704</v>
       </c>
       <c r="X4">
-        <v>0.9792286936700262</v>
+        <v>0.9770494788256945</v>
       </c>
       <c r="Y4">
-        <v>0.9792286936700262</v>
+        <v>0.9770494788256945</v>
       </c>
       <c r="Z4">
-        <v>0.9792286936700262</v>
+        <v>0.9770494788256945</v>
       </c>
       <c r="AA4">
-        <v>0.9792286936700262</v>
+        <v>0.9770494788256945</v>
       </c>
       <c r="AB4">
-        <v>0.9914622151503092</v>
+        <v>0.9899451884480593</v>
       </c>
       <c r="AC4">
-        <v>0.9942213069600531</v>
+        <v>0.9934810533243335</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -2245,76 +2245,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184375685329555</v>
+        <v>0.184642696307576</v>
       </c>
       <c r="F5">
-        <v>0.184375685329555</v>
+        <v>0.184642696307576</v>
       </c>
       <c r="G5">
-        <v>0.5723502387361536</v>
+        <v>0.5733655756281126</v>
       </c>
       <c r="H5">
-        <v>0.6842010205108966</v>
+        <v>0.6853119169399303</v>
       </c>
       <c r="I5">
-        <v>0.6842010205108966</v>
+        <v>0.6853119169399303</v>
       </c>
       <c r="J5">
-        <v>0.7059045220966625</v>
+        <v>0.70689786669925</v>
       </c>
       <c r="K5">
-        <v>0.7515833868147256</v>
+        <v>0.7525158581985556</v>
       </c>
       <c r="L5">
-        <v>0.8719650373384589</v>
+        <v>0.8730132355352626</v>
       </c>
       <c r="M5">
-        <v>0.9222680170563429</v>
+        <v>0.9232662736060419</v>
       </c>
       <c r="N5">
-        <v>0.9248619779287069</v>
+        <v>0.9256975070208241</v>
       </c>
       <c r="O5">
-        <v>0.9248619779287069</v>
+        <v>0.9256975070208241</v>
       </c>
       <c r="P5">
-        <v>0.9250304393528992</v>
+        <v>0.9256975070208241</v>
       </c>
       <c r="Q5">
-        <v>0.9250304393528992</v>
+        <v>0.9256975070208241</v>
       </c>
       <c r="R5">
-        <v>0.9301198936807898</v>
+        <v>0.9306301333260559</v>
       </c>
       <c r="S5">
-        <v>0.9301198936807898</v>
+        <v>0.9306301333260559</v>
       </c>
       <c r="T5">
-        <v>0.9333554957714553</v>
+        <v>0.9337045248217075</v>
       </c>
       <c r="U5">
-        <v>0.9333554957714553</v>
+        <v>0.9337045248217075</v>
       </c>
       <c r="V5">
-        <v>0.9333554957714553</v>
+        <v>0.9337045248217075</v>
       </c>
       <c r="W5">
-        <v>0.9333554957714553</v>
+        <v>0.9337045248217075</v>
       </c>
       <c r="X5">
-        <v>0.9776726028632325</v>
+        <v>0.9779575394514631</v>
       </c>
       <c r="Y5">
-        <v>0.9776726028632325</v>
+        <v>0.9779575394514631</v>
       </c>
       <c r="Z5">
-        <v>0.9776726028632325</v>
+        <v>0.9779575394514631</v>
       </c>
       <c r="AA5">
-        <v>0.9815743549744224</v>
+        <v>0.9816996557698837</v>
       </c>
       <c r="AB5">
-        <v>0.9815743549744224</v>
+        <v>0.9816996557698837</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -2352,85 +2352,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0146589640158236</v>
+        <v>0.01971310645070827</v>
       </c>
       <c r="E6">
-        <v>0.2460842197781408</v>
+        <v>0.2351552708983104</v>
       </c>
       <c r="F6">
-        <v>0.4985455934346041</v>
+        <v>0.4695919916773372</v>
       </c>
       <c r="G6">
-        <v>0.700683432440829</v>
+        <v>0.6585890919655339</v>
       </c>
       <c r="H6">
-        <v>0.700683432440829</v>
+        <v>0.6585890919655339</v>
       </c>
       <c r="I6">
-        <v>0.7056082157672512</v>
+        <v>0.6695127228877488</v>
       </c>
       <c r="J6">
-        <v>0.7056082157672512</v>
+        <v>0.6695127228877488</v>
       </c>
       <c r="K6">
-        <v>0.8650017155337271</v>
+        <v>0.819913834903562</v>
       </c>
       <c r="L6">
-        <v>0.8933245239715825</v>
+        <v>0.8519647055693268</v>
       </c>
       <c r="M6">
-        <v>0.941251829284247</v>
+        <v>0.9017174507972905</v>
       </c>
       <c r="N6">
-        <v>0.941251829284247</v>
+        <v>0.9017174507972905</v>
       </c>
       <c r="O6">
-        <v>0.941251829284247</v>
+        <v>0.9037030916281051</v>
       </c>
       <c r="P6">
-        <v>0.9519566746350406</v>
+        <v>0.9198458278183886</v>
       </c>
       <c r="Q6">
-        <v>0.9519566746350406</v>
+        <v>0.9198458278183886</v>
       </c>
       <c r="R6">
-        <v>0.9519566746350406</v>
+        <v>0.9229815245218749</v>
       </c>
       <c r="S6">
-        <v>0.9519566746350406</v>
+        <v>0.9286072354308752</v>
       </c>
       <c r="T6">
-        <v>0.9519566746350406</v>
+        <v>0.9286072354308752</v>
       </c>
       <c r="U6">
-        <v>0.9519566746350406</v>
+        <v>0.9286072354308752</v>
       </c>
       <c r="V6">
-        <v>0.9519566746350406</v>
+        <v>0.9286072354308752</v>
       </c>
       <c r="W6">
-        <v>0.966441986401865</v>
+        <v>0.9481635426355299</v>
       </c>
       <c r="X6">
-        <v>0.9813730882407988</v>
+        <v>0.9681223758518416</v>
       </c>
       <c r="Y6">
-        <v>0.9813730882407988</v>
+        <v>0.9681223758518416</v>
       </c>
       <c r="Z6">
-        <v>0.9813730882407988</v>
+        <v>0.9702021039999537</v>
       </c>
       <c r="AA6">
-        <v>0.9813730882407988</v>
+        <v>0.9702021039999537</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9934980676732252</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9934980676732252</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9979929124879764</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2462,97 +2462,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03144796260457183</v>
+        <v>0.035017877003825</v>
       </c>
       <c r="E7">
-        <v>0.1816033347587134</v>
+        <v>0.166432587152743</v>
       </c>
       <c r="F7">
-        <v>0.2130671712516595</v>
+        <v>0.2014633546119725</v>
       </c>
       <c r="G7">
-        <v>0.385924404719048</v>
+        <v>0.3513132032699343</v>
       </c>
       <c r="H7">
-        <v>0.5493814561543462</v>
+        <v>0.4935295960019411</v>
       </c>
       <c r="I7">
-        <v>0.6141810974098472</v>
+        <v>0.5556308388564872</v>
       </c>
       <c r="J7">
-        <v>0.6141810974098472</v>
+        <v>0.5556308388564872</v>
       </c>
       <c r="K7">
-        <v>0.633604051396319</v>
+        <v>0.5808837588645718</v>
       </c>
       <c r="L7">
-        <v>0.6375034333737667</v>
+        <v>0.593530699292714</v>
       </c>
       <c r="M7">
-        <v>0.872093558447435</v>
+        <v>0.7935109928345708</v>
       </c>
       <c r="N7">
-        <v>0.872093558447435</v>
+        <v>0.8022978825969261</v>
       </c>
       <c r="O7">
-        <v>0.8767320823342974</v>
+        <v>0.8155450462089687</v>
       </c>
       <c r="P7">
-        <v>0.8941759950906323</v>
+        <v>0.8391908777634121</v>
       </c>
       <c r="Q7">
-        <v>0.8941759950906323</v>
+        <v>0.8391908777634121</v>
       </c>
       <c r="R7">
-        <v>0.9046489161484966</v>
+        <v>0.8571758872498556</v>
       </c>
       <c r="S7">
-        <v>0.9046489161484966</v>
+        <v>0.8571758872498556</v>
       </c>
       <c r="T7">
-        <v>0.9046489161484966</v>
+        <v>0.8571758872498556</v>
       </c>
       <c r="U7">
-        <v>0.9046489161484966</v>
+        <v>0.8594622946727926</v>
       </c>
       <c r="V7">
-        <v>0.9046489161484966</v>
+        <v>0.8594622946727926</v>
       </c>
       <c r="W7">
-        <v>0.9213552041351374</v>
+        <v>0.882509135042796</v>
       </c>
       <c r="X7">
-        <v>0.9583856680653365</v>
+        <v>0.9220603048786413</v>
       </c>
       <c r="Y7">
-        <v>0.9583856680653365</v>
+        <v>0.9267391798453207</v>
       </c>
       <c r="Z7">
-        <v>0.9662948289184448</v>
+        <v>0.9426422774644289</v>
       </c>
       <c r="AA7">
-        <v>0.9662948289184448</v>
+        <v>0.9460397094437684</v>
       </c>
       <c r="AB7">
-        <v>0.9862650416134608</v>
+        <v>0.9717370331046233</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9923709932275816</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9923709932275816</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9926109596929285</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9954339626201565</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9971102240241108</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9971102240241108</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2575,88 +2575,88 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0731179171541866</v>
+        <v>0.07458657839567853</v>
       </c>
       <c r="F8">
-        <v>0.1799536115921415</v>
+        <v>0.1879925491323145</v>
       </c>
       <c r="G8">
-        <v>0.4452356996678691</v>
+        <v>0.4838183949357299</v>
       </c>
       <c r="H8">
-        <v>0.633336557554145</v>
+        <v>0.6907852263721329</v>
       </c>
       <c r="I8">
-        <v>0.6652297505416893</v>
+        <v>0.7179096387980805</v>
       </c>
       <c r="J8">
-        <v>0.6834286110755394</v>
+        <v>0.7292677194194881</v>
       </c>
       <c r="K8">
-        <v>0.6834286110755394</v>
+        <v>0.7292677194194881</v>
       </c>
       <c r="L8">
-        <v>0.7293310008888436</v>
+        <v>0.7725209680787382</v>
       </c>
       <c r="M8">
-        <v>0.7293310008888436</v>
+        <v>0.7725209680787382</v>
       </c>
       <c r="N8">
-        <v>0.8750831478512151</v>
+        <v>0.9307315837464276</v>
       </c>
       <c r="O8">
-        <v>0.8750831478512151</v>
+        <v>0.9307315837464276</v>
       </c>
       <c r="P8">
-        <v>0.9021480241893787</v>
+        <v>0.9522971386954642</v>
       </c>
       <c r="Q8">
-        <v>0.9104814744303519</v>
+        <v>0.9522971386954642</v>
       </c>
       <c r="R8">
-        <v>0.9104814744303519</v>
+        <v>0.9522971386954642</v>
       </c>
       <c r="S8">
-        <v>0.9231023222463632</v>
+        <v>0.9572332341915097</v>
       </c>
       <c r="T8">
-        <v>0.9231023222463632</v>
+        <v>0.9572332341915097</v>
       </c>
       <c r="U8">
-        <v>0.9413853956285639</v>
+        <v>0.9686882693533296</v>
       </c>
       <c r="V8">
-        <v>0.9413853956285639</v>
+        <v>0.9686882693533296</v>
       </c>
       <c r="W8">
-        <v>0.9559445706696561</v>
+        <v>0.9758559676149523</v>
       </c>
       <c r="X8">
-        <v>0.9559445706696561</v>
+        <v>0.9758559676149523</v>
       </c>
       <c r="Y8">
-        <v>0.9609748160998675</v>
+        <v>0.9758559676149523</v>
       </c>
       <c r="Z8">
-        <v>0.980539663796987</v>
+        <v>0.9887867139307026</v>
       </c>
       <c r="AA8">
-        <v>0.980539663796987</v>
+        <v>0.9887867139307026</v>
       </c>
       <c r="AB8">
-        <v>0.980539663796987</v>
+        <v>0.9887867139307026</v>
       </c>
       <c r="AC8">
-        <v>0.9986127585687902</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9986127585687902</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9986127585687902</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9986127585687902</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -2685,88 +2685,88 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1242589882808096</v>
+        <v>0.1511499165889865</v>
       </c>
       <c r="F9">
-        <v>0.1555507720034059</v>
+        <v>0.1511499165889865</v>
       </c>
       <c r="G9">
-        <v>0.3920015534349623</v>
+        <v>0.4949301806340963</v>
       </c>
       <c r="H9">
-        <v>0.5064124857516271</v>
+        <v>0.6291712450792223</v>
       </c>
       <c r="I9">
-        <v>0.5530291069897676</v>
+        <v>0.6470112668825077</v>
       </c>
       <c r="J9">
-        <v>0.5838688191965616</v>
+        <v>0.6470112668825077</v>
       </c>
       <c r="K9">
-        <v>0.5873849970520204</v>
+        <v>0.6470112668825077</v>
       </c>
       <c r="L9">
-        <v>0.6236112303663947</v>
+        <v>0.6470112668825077</v>
       </c>
       <c r="M9">
-        <v>0.6657687273961316</v>
+        <v>0.6571950901217799</v>
       </c>
       <c r="N9">
-        <v>0.8920316153494525</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="O9">
-        <v>0.8920316153494525</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="P9">
-        <v>0.8920316153494525</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="Q9">
-        <v>0.9372929774122689</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="R9">
-        <v>0.9372929774122689</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="S9">
-        <v>0.9372929774122689</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="T9">
-        <v>0.9372929774122689</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="U9">
-        <v>0.9381367779256685</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="V9">
-        <v>0.9381367779256685</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="W9">
-        <v>0.9381367779256685</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="X9">
-        <v>0.9381367779256685</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="Y9">
-        <v>0.9449833736950197</v>
+        <v>0.9989960875538951</v>
       </c>
       <c r="Z9">
-        <v>0.981794305832722</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9865273066715393</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9865273066715393</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9865273066715393</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9865273066715393</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9865273066715393</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9877695723288457</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -2795,85 +2795,85 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2776142967912409</v>
+        <v>0.2883909964921616</v>
       </c>
       <c r="F10">
-        <v>0.3190584346007308</v>
+        <v>0.3285641917159811</v>
       </c>
       <c r="G10">
-        <v>0.6252467444679057</v>
+        <v>0.6469868345842171</v>
       </c>
       <c r="H10">
-        <v>0.6400460571531378</v>
+        <v>0.6591559841824679</v>
       </c>
       <c r="I10">
-        <v>0.6453435459763293</v>
+        <v>0.6613385976440468</v>
       </c>
       <c r="J10">
-        <v>0.6453435459763293</v>
+        <v>0.6613385976440468</v>
       </c>
       <c r="K10">
-        <v>0.7194982529145857</v>
+        <v>0.7358910115735026</v>
       </c>
       <c r="L10">
-        <v>0.7194982529145857</v>
+        <v>0.7358910115735026</v>
       </c>
       <c r="M10">
-        <v>0.7716201413577177</v>
+        <v>0.7872866567300381</v>
       </c>
       <c r="N10">
-        <v>0.8565390680054886</v>
+        <v>0.8731524006762277</v>
       </c>
       <c r="O10">
-        <v>0.8749599309187507</v>
+        <v>0.8891278450183201</v>
       </c>
       <c r="P10">
-        <v>0.8749599309187507</v>
+        <v>0.8891278450183201</v>
       </c>
       <c r="Q10">
-        <v>0.8947005789727912</v>
+        <v>0.9064904001080323</v>
       </c>
       <c r="R10">
-        <v>0.8947005789727912</v>
+        <v>0.9064904001080323</v>
       </c>
       <c r="S10">
-        <v>0.8979213909195344</v>
+        <v>0.9064904001080323</v>
       </c>
       <c r="T10">
-        <v>0.936890281564942</v>
+        <v>0.9440620794955022</v>
       </c>
       <c r="U10">
-        <v>0.936890281564942</v>
+        <v>0.9440620794955022</v>
       </c>
       <c r="V10">
-        <v>0.9469908575535134</v>
+        <v>0.9512927978515821</v>
       </c>
       <c r="W10">
-        <v>0.9469908575535134</v>
+        <v>0.9512927978515821</v>
       </c>
       <c r="X10">
-        <v>0.9469908575535134</v>
+        <v>0.9512927978515821</v>
       </c>
       <c r="Y10">
-        <v>0.9779789790819169</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="Z10">
-        <v>0.9779789790819169</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AA10">
-        <v>0.9779789790819169</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AB10">
-        <v>0.9779789790819169</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AC10">
-        <v>0.9782033763270608</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AD10">
-        <v>0.9782033763270608</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AE10">
-        <v>0.9782033763270608</v>
+        <v>0.9804765887302157</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2905,100 +2905,100 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.309005188565485</v>
+        <v>0.3443454889870581</v>
       </c>
       <c r="F11">
-        <v>0.3454558307588245</v>
+        <v>0.3772459015726147</v>
       </c>
       <c r="G11">
-        <v>0.6586220824451497</v>
+        <v>0.7263461915300888</v>
       </c>
       <c r="H11">
-        <v>0.6917904101812006</v>
+        <v>0.7554959395586572</v>
       </c>
       <c r="I11">
-        <v>0.7006182325112834</v>
+        <v>0.7568320603088819</v>
       </c>
       <c r="J11">
-        <v>0.7006182325112834</v>
+        <v>0.7568320603088819</v>
       </c>
       <c r="K11">
-        <v>0.7575183818649733</v>
+        <v>0.8130998993589831</v>
       </c>
       <c r="L11">
-        <v>0.7575183818649733</v>
+        <v>0.8130998993589831</v>
       </c>
       <c r="M11">
-        <v>0.8257045643861279</v>
+        <v>0.8822641641297234</v>
       </c>
       <c r="N11">
-        <v>0.8818251249205762</v>
+        <v>0.9376411756276803</v>
       </c>
       <c r="O11">
-        <v>0.9065653111668484</v>
+        <v>0.9571601792597757</v>
       </c>
       <c r="P11">
-        <v>0.9065653111668484</v>
+        <v>0.9571601792597757</v>
       </c>
       <c r="Q11">
-        <v>0.9142238557893381</v>
+        <v>0.9571601792597757</v>
       </c>
       <c r="R11">
-        <v>0.9149125853610185</v>
+        <v>0.9571601792597757</v>
       </c>
       <c r="S11">
-        <v>0.9258138380179625</v>
+        <v>0.9608655859938811</v>
       </c>
       <c r="T11">
-        <v>0.9415182147732917</v>
+        <v>0.9700594697014909</v>
       </c>
       <c r="U11">
-        <v>0.9415182147732917</v>
+        <v>0.9700594697014909</v>
       </c>
       <c r="V11">
-        <v>0.9561387883683975</v>
+        <v>0.9780149034821674</v>
       </c>
       <c r="W11">
-        <v>0.9561387883683975</v>
+        <v>0.9780149034821674</v>
       </c>
       <c r="X11">
-        <v>0.9561387883683975</v>
+        <v>0.9780149034821674</v>
       </c>
       <c r="Y11">
-        <v>0.9820414270674085</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="Z11">
-        <v>0.9820414270674085</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AA11">
-        <v>0.9820414270674085</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AB11">
-        <v>0.9895361377436103</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AC11">
-        <v>0.9913457589985198</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AD11">
-        <v>0.9913457589985198</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AE11">
-        <v>0.9913457589985198</v>
+        <v>0.9988622287209844</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6495208144002278</v>
+        <v>0.6185957394179249</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7060275200054185</v>
+        <v>0.699919161433487</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5723502387361536</v>
+        <v>0.5733655756281126</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.700683432440829</v>
+        <v>0.6585890919655339</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3271,16 +3271,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5493814561543462</v>
+        <v>0.5556308388564872</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.633336557554145</v>
+        <v>0.6907852263721329</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5064124857516271</v>
+        <v>0.6291712450792223</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6252467444679057</v>
+        <v>0.6469868345842171</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6586220824451497</v>
+        <v>0.7263461915300888</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7742133904895255</v>
+        <v>0.7907579459795012</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7066671795737774</v>
+        <v>0.7982895686063413</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -3612,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7060275200054185</v>
+        <v>0.7097594232203158</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7059045220966625</v>
+        <v>0.70689786669925</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.700683432440829</v>
+        <v>0.819913834903562</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.872093558447435</v>
+        <v>0.7935109928345708</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3776,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7293310008888436</v>
+        <v>0.7179096387980805</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>22</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8920316153494525</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7194982529145857</v>
+        <v>0.7358910115735026</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7006182325112834</v>
+        <v>0.7263461915300888</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>22</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.887053146596284</v>
+        <v>0.9048902232915305</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8275161664929737</v>
+        <v>0.8392156248143329</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8724618811671594</v>
+        <v>0.8667710704355046</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8719650373384589</v>
+        <v>0.8730132355352626</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8650017155337271</v>
+        <v>0.819913834903562</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -4199,16 +4199,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.872093558447435</v>
+        <v>0.8022978825969261</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8750831478512151</v>
+        <v>0.9307315837464276</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8920316153494525</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8565390680054886</v>
+        <v>0.8731524006762277</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8257045643861279</v>
+        <v>0.8130998993589831</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>22</v>
@@ -4458,16 +4458,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9119622214747332</v>
+        <v>0.9048902232915305</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -4499,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9118036849154056</v>
+        <v>0.9166280057867437</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9071671365892675</v>
+        <v>0.9018667380695869</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9222680170563429</v>
+        <v>0.9232662736060419</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.941251829284247</v>
+        <v>0.9017174507972905</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4663,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9046489161484966</v>
+        <v>0.9220603048786413</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9021480241893787</v>
+        <v>0.9307315837464276</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>22</v>
@@ -4745,16 +4745,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9372929774122689</v>
+        <v>0.983483009981593</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -4786,16 +4786,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.936890281564942</v>
+        <v>0.9064904001080323</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>22</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9065653111668484</v>
+        <v>0.9376411756276803</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>22</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
@@ -19,7 +19,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="103">
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
   <si>
     <t>Signal_Value_88</t>
   </si>
@@ -562,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,10 +800,133 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -692,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03506179622947712</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1914162202981033</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2730672343709956</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2912126950809252</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1141322773120292</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02310371338594172</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.007854509520385671</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -731,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003051698348193329</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.004220560223955581</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -749,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01553415112296549</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.008436369736552134</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -764,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03290877437047546</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -787,10 +1033,133 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0.03976681261422217</v>
+      </c>
+      <c r="AU2">
+        <v>0.1630733784203573</v>
+      </c>
+      <c r="AV2">
+        <v>0.2274662230737182</v>
+      </c>
+      <c r="AW2">
+        <v>0.241776367851774</v>
+      </c>
+      <c r="AX2">
+        <v>0.0003939155703813483</v>
+      </c>
+      <c r="AY2">
+        <v>0.007513341755916727</v>
+      </c>
+      <c r="AZ2">
+        <v>0.001319796388877725</v>
+      </c>
+      <c r="BA2">
+        <v>0.1021245587221871</v>
+      </c>
+      <c r="BB2">
+        <v>0.03033625036537637</v>
+      </c>
+      <c r="BC2">
+        <v>0.01831019500339918</v>
+      </c>
+      <c r="BD2">
+        <v>0.00711347716267622</v>
+      </c>
+      <c r="BE2">
+        <v>0.001663554091475871</v>
+      </c>
+      <c r="BF2">
+        <v>0.01027826628802577</v>
+      </c>
+      <c r="BG2">
+        <v>0.01452253018108214</v>
+      </c>
+      <c r="BH2">
+        <v>0.01544433552596129</v>
+      </c>
+      <c r="BI2">
+        <v>0.0121158541600262</v>
+      </c>
+      <c r="BJ2">
+        <v>0.0004046651721260339</v>
+      </c>
+      <c r="BK2">
+        <v>0.005137805583170169</v>
+      </c>
+      <c r="BL2">
+        <v>0.001653442417606186</v>
+      </c>
+      <c r="BM2">
+        <v>0.02436662889247424</v>
+      </c>
+      <c r="BN2">
+        <v>0.01876907031480841</v>
+      </c>
+      <c r="BO2">
+        <v>0.0006183248493348148</v>
+      </c>
+      <c r="BP2">
+        <v>0.003306835267842817</v>
+      </c>
+      <c r="BQ2">
+        <v>5.030343630254984E-05</v>
+      </c>
+      <c r="BR2">
+        <v>0.03806886429507188</v>
+      </c>
+      <c r="BS2">
+        <v>0.003418561717766281</v>
+      </c>
+      <c r="BT2">
+        <v>0.002312710053232002</v>
+      </c>
+      <c r="BU2">
+        <v>0.0008214936414409822</v>
+      </c>
+      <c r="BV2">
+        <v>0.0007315837860667799</v>
+      </c>
+      <c r="BW2">
+        <v>1.691656287313041E-05</v>
+      </c>
+      <c r="BX2">
+        <v>0.004013420901621674</v>
+      </c>
+      <c r="BY2">
+        <v>0.003090515932804334</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:77">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -802,37 +1171,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2774100873268577</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3411856520910673</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04037959002796526</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02161399239495134</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1177002467654997</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04092605620799158</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02483448014801472</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01405961549617374</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0159737549958366</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.02254453033238578</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002300780140090582</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -859,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03806987924161241</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -868,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.005364686917570875</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.009591845449996288</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02804480246398625</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -897,10 +1266,133 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0.2426184141854546</v>
+      </c>
+      <c r="AU3">
+        <v>0.005935478935601051</v>
+      </c>
+      <c r="AV3">
+        <v>0.2969085273882341</v>
+      </c>
+      <c r="AW3">
+        <v>0.0408418783218372</v>
+      </c>
+      <c r="AX3">
+        <v>0.002098899943336495</v>
+      </c>
+      <c r="AY3">
+        <v>0.02486732092543022</v>
+      </c>
+      <c r="AZ3">
+        <v>0.1066624982209141</v>
+      </c>
+      <c r="BA3">
+        <v>0.04130706762882031</v>
+      </c>
+      <c r="BB3">
+        <v>0.02760881988868355</v>
+      </c>
+      <c r="BC3">
+        <v>0.01843651974746465</v>
+      </c>
+      <c r="BD3">
+        <v>0.02006596592339138</v>
+      </c>
+      <c r="BE3">
+        <v>0.0009969621562367545</v>
+      </c>
+      <c r="BF3">
+        <v>0.003240929832965047</v>
+      </c>
+      <c r="BG3">
+        <v>0.0256594583239711</v>
+      </c>
+      <c r="BH3">
+        <v>6.457099847777635E-06</v>
+      </c>
+      <c r="BI3">
+        <v>0.008426596589985069</v>
+      </c>
+      <c r="BJ3">
+        <v>0.006468015513956355</v>
+      </c>
+      <c r="BK3">
+        <v>0.006175553209375542</v>
+      </c>
+      <c r="BL3">
+        <v>0.00598433683261456</v>
+      </c>
+      <c r="BM3">
+        <v>0.0388756948702224</v>
+      </c>
+      <c r="BN3">
+        <v>0.006385570259123265</v>
+      </c>
+      <c r="BO3">
+        <v>9.969133297636287E-07</v>
+      </c>
+      <c r="BP3">
+        <v>0.01103480314067825</v>
+      </c>
+      <c r="BQ3">
+        <v>0.0146332489733408</v>
+      </c>
+      <c r="BR3">
+        <v>0.03034166533812617</v>
+      </c>
+      <c r="BS3">
+        <v>0.003983990653637994</v>
+      </c>
+      <c r="BT3">
+        <v>0.0009318317206790477</v>
+      </c>
+      <c r="BU3">
+        <v>0.001800460852109273</v>
+      </c>
+      <c r="BV3">
+        <v>0.0007660712654961978</v>
+      </c>
+      <c r="BW3">
+        <v>0.0007914917754771467</v>
+      </c>
+      <c r="BX3">
+        <v>0.005370686563687629</v>
+      </c>
+      <c r="BY3">
+        <v>0.0007737870059722802</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:77">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -912,37 +1404,37 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3086237768961282</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.05850258623175141</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3327927983056074</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.009840261786828796</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002852836169915715</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.154158811045273</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03509566763408238</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03737666010682204</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001910959194633446</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.009977013000970225</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -966,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0007521376041576887</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02516597084952408</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -981,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01289570962236482</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003535864876274059</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.006518946675666554</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1007,10 +1499,133 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.2570602418000761</v>
+      </c>
+      <c r="AU4">
+        <v>0.05630564612256161</v>
+      </c>
+      <c r="AV4">
+        <v>0.2764590064872787</v>
+      </c>
+      <c r="AW4">
+        <v>0.01724783881435487</v>
+      </c>
+      <c r="AX4">
+        <v>0.001134759198282927</v>
+      </c>
+      <c r="AY4">
+        <v>0.01163952629663472</v>
+      </c>
+      <c r="AZ4">
+        <v>0.1330821346938316</v>
+      </c>
+      <c r="BA4">
+        <v>0.03751856748020492</v>
+      </c>
+      <c r="BB4">
+        <v>0.03934935886733996</v>
+      </c>
+      <c r="BC4">
+        <v>0.007521932555016595</v>
+      </c>
+      <c r="BD4">
+        <v>0.0108835482411629</v>
+      </c>
+      <c r="BE4">
+        <v>0.009349756404270349</v>
+      </c>
+      <c r="BF4">
+        <v>0.0004444328763474175</v>
+      </c>
+      <c r="BG4">
+        <v>0.01735759934536166</v>
+      </c>
+      <c r="BH4">
+        <v>0.008841711255249287</v>
+      </c>
+      <c r="BI4">
+        <v>0.002872146506112114</v>
+      </c>
+      <c r="BJ4">
+        <v>0.002688544449043593</v>
+      </c>
+      <c r="BK4">
+        <v>2.290465478423637E-05</v>
+      </c>
+      <c r="BL4">
+        <v>0.009953444081493758</v>
+      </c>
+      <c r="BM4">
+        <v>0.02954870192067626</v>
+      </c>
+      <c r="BN4">
+        <v>0.0001022812922461276</v>
+      </c>
+      <c r="BO4">
+        <v>0.000685197536172605</v>
+      </c>
+      <c r="BP4">
+        <v>0.009138361347622026</v>
+      </c>
+      <c r="BQ4">
+        <v>0.01970023076566239</v>
+      </c>
+      <c r="BR4">
+        <v>0.01218774514773199</v>
+      </c>
+      <c r="BS4">
+        <v>0.01458205399825069</v>
+      </c>
+      <c r="BT4">
+        <v>0.003575364033948406</v>
+      </c>
+      <c r="BU4">
+        <v>0.00341785953498904</v>
+      </c>
+      <c r="BV4">
+        <v>0.004616676184194666</v>
+      </c>
+      <c r="BW4">
+        <v>0.0004054107679681471</v>
+      </c>
+      <c r="BX4">
+        <v>0.00217417924980089</v>
+      </c>
+      <c r="BY4">
+        <v>0.0001328380913295782</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:77">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1022,34 +1637,34 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184642696307576</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3887228793205366</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1119463413118177</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02158594975931967</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04561799149930554</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.120497377336707</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05025303807077927</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002431233414782215</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1061,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004932626305231861</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00307439149565154</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1079,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04425301462975564</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1088,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003742116318420554</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01830034423011644</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1117,10 +1732,133 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.1548357756310594</v>
+      </c>
+      <c r="AU5">
+        <v>0.006461462804930802</v>
+      </c>
+      <c r="AV5">
+        <v>0.3147722657535857</v>
+      </c>
+      <c r="AW5">
+        <v>0.09786405162008878</v>
+      </c>
+      <c r="AX5">
+        <v>0.000185593518489563</v>
+      </c>
+      <c r="AY5">
+        <v>0.02704912163697568</v>
+      </c>
+      <c r="AZ5">
+        <v>0.04588289740895887</v>
+      </c>
+      <c r="BA5">
+        <v>0.1045654503964963</v>
+      </c>
+      <c r="BB5">
+        <v>0.04951535730414074</v>
+      </c>
+      <c r="BC5">
+        <v>0.01203767831009788</v>
+      </c>
+      <c r="BD5">
+        <v>0.006998463991033326</v>
+      </c>
+      <c r="BE5">
+        <v>0.01013233437474783</v>
+      </c>
+      <c r="BF5">
+        <v>0.007476067806150983</v>
+      </c>
+      <c r="BG5">
+        <v>0.01399800583141605</v>
+      </c>
+      <c r="BH5">
+        <v>0.003402685939730703</v>
+      </c>
+      <c r="BI5">
+        <v>0.01254171767604477</v>
+      </c>
+      <c r="BJ5">
+        <v>0.004472118704080119</v>
+      </c>
+      <c r="BK5">
+        <v>0.0006957360113747708</v>
+      </c>
+      <c r="BL5">
+        <v>0.003344948288189869</v>
+      </c>
+      <c r="BM5">
+        <v>0.04481317272334164</v>
+      </c>
+      <c r="BN5">
+        <v>0.005061406969992677</v>
+      </c>
+      <c r="BO5">
+        <v>0.0003429657994511601</v>
+      </c>
+      <c r="BP5">
+        <v>0.01306500985926758</v>
+      </c>
+      <c r="BQ5">
+        <v>0.006686247201906428</v>
+      </c>
+      <c r="BR5">
+        <v>0.02447421108706424</v>
+      </c>
+      <c r="BS5">
+        <v>0.007434925555922298</v>
+      </c>
+      <c r="BT5">
+        <v>0.00573464662831936</v>
+      </c>
+      <c r="BU5">
+        <v>0.006759325244345757</v>
+      </c>
+      <c r="BV5">
+        <v>0.007138319561423543</v>
+      </c>
+      <c r="BW5">
+        <v>0.0005502042757973445</v>
+      </c>
+      <c r="BX5">
+        <v>0.001701884386988225</v>
+      </c>
+      <c r="BY5">
+        <v>5.947698587608829E-06</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:77">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1129,52 +1867,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01971310645070827</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2154421644476021</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2344367207790268</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1889971002881967</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01092363092221482</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1504011120158132</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03205087066576482</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.04975274522796373</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001985640830814628</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01614273619028346</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003135696703486227</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00562571090900029</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1186,31 +1924,31 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01955630720465469</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01995883321631166</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002079728148112107</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02329596367327161</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.00449484481475115</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002007087512023606</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1227,10 +1965,133 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.02198421042974398</v>
+      </c>
+      <c r="AT6">
+        <v>0.1991981562148003</v>
+      </c>
+      <c r="AU6">
+        <v>0.2163959106533963</v>
+      </c>
+      <c r="AV6">
+        <v>0.1752546793790738</v>
+      </c>
+      <c r="AW6">
+        <v>0.002700774046486663</v>
+      </c>
+      <c r="AX6">
+        <v>0.0140261808161225</v>
+      </c>
+      <c r="AY6">
+        <v>0.001717666209608687</v>
+      </c>
+      <c r="AZ6">
+        <v>0.1403097026688124</v>
+      </c>
+      <c r="BA6">
+        <v>0.03315487615046971</v>
+      </c>
+      <c r="BB6">
+        <v>0.04918223085734807</v>
+      </c>
+      <c r="BC6">
+        <v>5.778355514346144E-08</v>
+      </c>
+      <c r="BD6">
+        <v>0.005933685467220848</v>
+      </c>
+      <c r="BE6">
+        <v>0.01875158156901784</v>
+      </c>
+      <c r="BF6">
+        <v>0.0007147260770149836</v>
+      </c>
+      <c r="BG6">
+        <v>0.006974951087947662</v>
+      </c>
+      <c r="BH6">
+        <v>0.009229420848012579</v>
+      </c>
+      <c r="BI6">
+        <v>0.0004083885186749293</v>
+      </c>
+      <c r="BJ6">
+        <v>0.0041358775681701</v>
+      </c>
+      <c r="BK6">
+        <v>0.002743482983327843</v>
+      </c>
+      <c r="BL6">
+        <v>0.02184224370608194</v>
+      </c>
+      <c r="BM6">
+        <v>0.0222066925188279</v>
+      </c>
+      <c r="BN6">
+        <v>0.000173308239556029</v>
+      </c>
+      <c r="BO6">
+        <v>0.00601887253610707</v>
+      </c>
+      <c r="BP6">
+        <v>0.0002094172144310208</v>
+      </c>
+      <c r="BQ6">
+        <v>0.02522814504064377</v>
+      </c>
+      <c r="BR6">
+        <v>3.630038206289471E-05</v>
+      </c>
+      <c r="BS6">
+        <v>0.008205529736660038</v>
+      </c>
+      <c r="BT6">
+        <v>0.005953103386256138</v>
+      </c>
+      <c r="BU6">
+        <v>0.003769775938495054</v>
+      </c>
+      <c r="BV6">
+        <v>0.001776276223464473</v>
+      </c>
+      <c r="BW6">
+        <v>0.0007337559157072754</v>
+      </c>
+      <c r="BX6">
+        <v>0.001030019832902232</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:77">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1239,49 +2100,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.035017877003825</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.131414710148918</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03503076745922949</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1498498486579618</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1422163927320069</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06210124285454605</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02525292000808459</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01264694042814218</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1999802935418569</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.008786889762355339</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01324716361204254</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02364583155444334</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01798500948644358</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1290,57 +2151,180 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.00228640742293699</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02304684037000349</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.03955116983584527</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.004678874966679365</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.01590309761910808</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.003397431979339493</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.02569732366085497</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02063396012295828</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0002399664653468312</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.002823002927228025</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.001676261403954223</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.002889775975889229</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0.03501377757843381</v>
+      </c>
+      <c r="AT7">
+        <v>0.1294339082788345</v>
+      </c>
+      <c r="AU7">
+        <v>0.03502640370363284</v>
+      </c>
+      <c r="AV7">
+        <v>0.1474910179442936</v>
+      </c>
+      <c r="AW7">
+        <v>0.1400140927932406</v>
+      </c>
+      <c r="AX7">
+        <v>0.06154177502398086</v>
+      </c>
+      <c r="AY7">
+        <v>0.0006208429312450812</v>
+      </c>
+      <c r="AZ7">
+        <v>0.02544905967495427</v>
+      </c>
+      <c r="BA7">
+        <v>0.01310157687172554</v>
+      </c>
+      <c r="BB7">
+        <v>0.1965934936540733</v>
+      </c>
+      <c r="BC7">
+        <v>0.009320679963782712</v>
+      </c>
+      <c r="BD7">
+        <v>0.01368949194760755</v>
+      </c>
+      <c r="BE7">
+        <v>0.02387492599349281</v>
+      </c>
+      <c r="BF7">
+        <v>0.0002705355840812894</v>
+      </c>
+      <c r="BG7">
+        <v>0.01833018409592707</v>
+      </c>
+      <c r="BH7">
+        <v>0.0007139731587694031</v>
+      </c>
+      <c r="BI7">
+        <v>0.0002826576714846262</v>
+      </c>
+      <c r="BJ7">
+        <v>0.002953495772371635</v>
+      </c>
+      <c r="BK7">
+        <v>5.486011350300902E-05</v>
+      </c>
+      <c r="BL7">
+        <v>0.02328821765383115</v>
+      </c>
+      <c r="BM7">
+        <v>0.03945411122568426</v>
+      </c>
+      <c r="BN7">
+        <v>0.005296903650062076</v>
+      </c>
+      <c r="BO7">
+        <v>0.01629096367543197</v>
+      </c>
+      <c r="BP7">
+        <v>0.004041737786183259</v>
+      </c>
+      <c r="BQ7">
+        <v>0.02588435043720531</v>
+      </c>
+      <c r="BR7">
+        <v>0.02092481565339913</v>
+      </c>
+      <c r="BS7">
+        <v>0.0007077282029041045</v>
+      </c>
+      <c r="BT7">
+        <v>0.0009490188992000819</v>
+      </c>
+      <c r="BU7">
+        <v>0.003479087910571313</v>
+      </c>
+      <c r="BV7">
+        <v>0.002355861337929485</v>
+      </c>
+      <c r="BW7">
+        <v>5.959093436231718E-06</v>
+      </c>
+      <c r="BX7">
+        <v>0.003544491718727184</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:77">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1352,40 +2336,40 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07458657839567853</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.113405970736636</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2958258458034153</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2069668314364031</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0271244124259475</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01135808062140764</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04325324865925004</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1582106156676895</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02156555494903655</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1394,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.004936095496045535</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0114550351618199</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.00716769826162266</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1415,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01293074631575027</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01121328606929736</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1447,10 +2431,133 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0.06663966569400832</v>
+      </c>
+      <c r="AU8">
+        <v>0.09275862131565805</v>
+      </c>
+      <c r="AV8">
+        <v>0.2154966739757213</v>
+      </c>
+      <c r="AW8">
+        <v>0.1557094255703208</v>
+      </c>
+      <c r="AX8">
+        <v>0.03470556956538761</v>
+      </c>
+      <c r="AY8">
+        <v>0.02409746634980738</v>
+      </c>
+      <c r="AZ8">
+        <v>0.004701552069622189</v>
+      </c>
+      <c r="BA8">
+        <v>0.04555757760576114</v>
+      </c>
+      <c r="BB8">
+        <v>0.008780895714421351</v>
+      </c>
+      <c r="BC8">
+        <v>0.1229046504528337</v>
+      </c>
+      <c r="BD8">
+        <v>0.004372137171262841</v>
+      </c>
+      <c r="BE8">
+        <v>0.03096538861481347</v>
+      </c>
+      <c r="BF8">
+        <v>0.01645537857336722</v>
+      </c>
+      <c r="BG8">
+        <v>5.895583786359317E-06</v>
+      </c>
+      <c r="BH8">
+        <v>0.01977654491396993</v>
+      </c>
+      <c r="BI8">
+        <v>0.001080921834564096</v>
+      </c>
+      <c r="BJ8">
+        <v>0.02416270053266381</v>
+      </c>
+      <c r="BK8">
+        <v>0.001568407481833825</v>
+      </c>
+      <c r="BL8">
+        <v>0.02127804017405318</v>
+      </c>
+      <c r="BM8">
+        <v>0.001579496579955884</v>
+      </c>
+      <c r="BN8">
+        <v>0.0138966019631711</v>
+      </c>
+      <c r="BO8">
+        <v>0.02515560721706891</v>
+      </c>
+      <c r="BP8">
+        <v>0.002755787842940143</v>
+      </c>
+      <c r="BQ8">
+        <v>0.008398812219391779</v>
+      </c>
+      <c r="BR8">
+        <v>0.02400004384386993</v>
+      </c>
+      <c r="BS8">
+        <v>0.009091348555426886</v>
+      </c>
+      <c r="BT8">
+        <v>0.004914735889895398</v>
+      </c>
+      <c r="BU8">
+        <v>0.006923394788817026</v>
+      </c>
+      <c r="BV8">
+        <v>0.01107460515778796</v>
+      </c>
+      <c r="BW8">
+        <v>0.000423504141341571</v>
+      </c>
+      <c r="BX8">
+        <v>0.0001365919104789498</v>
+      </c>
+      <c r="BY8">
+        <v>0.0006319566959977197</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:77">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1459,108 +2566,231 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2394610251412414</v>
       </c>
       <c r="E9">
-        <v>0.1511499165889865</v>
+        <v>0.1024750389542208</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05298816898111282</v>
       </c>
       <c r="G9">
-        <v>0.3437802640451098</v>
+        <v>0.1489311481116576</v>
       </c>
       <c r="H9">
-        <v>0.134241064445126</v>
+        <v>0.005818565735541596</v>
       </c>
       <c r="I9">
-        <v>0.01784002180328534</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.008315979121636107</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01729666173030212</v>
       </c>
       <c r="M9">
-        <v>0.01018382323927228</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3262879198598131</v>
+        <v>0.0009660046699159393</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006354837532320469</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01551307757230212</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.04752822874892684</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.02272467547431396</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.004011189146718658</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.05512578462284101</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.1219950314347881</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.05800499180941732</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.02008390872417808</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.01295274156967675</v>
       </c>
       <c r="Z9">
-        <v>0.001003912446104834</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.004278219088308112</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.002053515482243156</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.01095660273040897</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.02381790028381563</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.005198651940079735</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.0286611289663349</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:77">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1572,43 +2802,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2883909964921616</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04017319522381945</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.318422642868236</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01216914959825079</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00218261346157892</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07455241392945582</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.05139564515653549</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.08586574394618961</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01597544434209238</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01736255508971217</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1617,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.03757167938746997</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.007230718356079749</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1632,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.02918379087863367</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1653,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.01952341126978453</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1667,10 +2897,133 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.2305549262446469</v>
+      </c>
+      <c r="AU10">
+        <v>0.04292592947660263</v>
+      </c>
+      <c r="AV10">
+        <v>0.2532559881831654</v>
+      </c>
+      <c r="AW10">
+        <v>0.02175754042745616</v>
+      </c>
+      <c r="AX10">
+        <v>0.01420867105975967</v>
+      </c>
+      <c r="AY10">
+        <v>0.00715905359742583</v>
+      </c>
+      <c r="AZ10">
+        <v>0.06891334167043725</v>
+      </c>
+      <c r="BA10">
+        <v>0.005995685827237369</v>
+      </c>
+      <c r="BB10">
+        <v>0.05140903186247358</v>
+      </c>
+      <c r="BC10">
+        <v>0.07746514073681748</v>
+      </c>
+      <c r="BD10">
+        <v>0.02463473642444432</v>
+      </c>
+      <c r="BE10">
+        <v>0.0001153480351168848</v>
+      </c>
+      <c r="BF10">
+        <v>0.02568325992538659</v>
+      </c>
+      <c r="BG10">
+        <v>0.009037368518943979</v>
+      </c>
+      <c r="BH10">
+        <v>0.01255882333717124</v>
+      </c>
+      <c r="BI10">
+        <v>0.04095943148993027</v>
+      </c>
+      <c r="BJ10">
+        <v>0.003515075080559795</v>
+      </c>
+      <c r="BK10">
+        <v>0.0180245571569501</v>
+      </c>
+      <c r="BL10">
+        <v>0.0004176443665347716</v>
+      </c>
+      <c r="BM10">
+        <v>0.003256250547308112</v>
+      </c>
+      <c r="BN10">
+        <v>0.03461898734018232</v>
+      </c>
+      <c r="BO10">
+        <v>0.00337001366680923</v>
+      </c>
+      <c r="BP10">
+        <v>2.996984159238687E-05</v>
+      </c>
+      <c r="BQ10">
+        <v>0.00974675028131099</v>
+      </c>
+      <c r="BR10">
+        <v>0.01017827582521594</v>
+      </c>
+      <c r="BS10">
+        <v>0.0005821503832267659</v>
+      </c>
+      <c r="BT10">
+        <v>0.001705508511609354</v>
+      </c>
+      <c r="BU10">
+        <v>0.02731666121713639</v>
+      </c>
+      <c r="BV10">
+        <v>0.0002158582441541653</v>
+      </c>
+      <c r="BW10">
+        <v>9.719846680950633E-05</v>
+      </c>
+      <c r="BX10">
+        <v>0.0001163252352131832</v>
+      </c>
+      <c r="BY10">
+        <v>0.0001744970183713306</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:77">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1682,37 +3035,37 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3443454889870581</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03290041258555659</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3491002899574741</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02914974802856839</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001336120750224708</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0562678390501011</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.06916426477074038</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.05537701149795687</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.01951900363209532</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1724,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0037054067341054</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.009193883707609894</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.007955433780676447</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1742,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.02084732523881704</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1763,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.001137771279015649</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1776,6 +3129,129 @@
       </c>
       <c r="AJ11">
         <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0.2532194839539151</v>
+      </c>
+      <c r="AU11">
+        <v>0.03869047741628467</v>
+      </c>
+      <c r="AV11">
+        <v>0.2564946769357829</v>
+      </c>
+      <c r="AW11">
+        <v>0.03610695177329364</v>
+      </c>
+      <c r="AX11">
+        <v>0.01694842180976701</v>
+      </c>
+      <c r="AY11">
+        <v>0.003426818926471373</v>
+      </c>
+      <c r="AZ11">
+        <v>0.0547863837722334</v>
+      </c>
+      <c r="BA11">
+        <v>0.006221830560981705</v>
+      </c>
+      <c r="BB11">
+        <v>0.06366967526523627</v>
+      </c>
+      <c r="BC11">
+        <v>0.05417276562817425</v>
+      </c>
+      <c r="BD11">
+        <v>0.02947312069313963</v>
+      </c>
+      <c r="BE11">
+        <v>0.0004201003341664427</v>
+      </c>
+      <c r="BF11">
+        <v>0.01602807764998167</v>
+      </c>
+      <c r="BG11">
+        <v>0.01054210238923678</v>
+      </c>
+      <c r="BH11">
+        <v>0.01858042888529452</v>
+      </c>
+      <c r="BI11">
+        <v>0.02236099117940726</v>
+      </c>
+      <c r="BJ11">
+        <v>0.003114257612172474</v>
+      </c>
+      <c r="BK11">
+        <v>0.02150792445078405</v>
+      </c>
+      <c r="BL11">
+        <v>0.004995475217303347</v>
+      </c>
+      <c r="BM11">
+        <v>0.002628686549619369</v>
+      </c>
+      <c r="BN11">
+        <v>0.03038809266169667</v>
+      </c>
+      <c r="BO11">
+        <v>0.006961715460993066</v>
+      </c>
+      <c r="BP11">
+        <v>0.0005847020646514504</v>
+      </c>
+      <c r="BQ11">
+        <v>0.01589912315554338</v>
+      </c>
+      <c r="BR11">
+        <v>0.01142436167436027</v>
+      </c>
+      <c r="BS11">
+        <v>0.002463652579528195</v>
+      </c>
+      <c r="BT11">
+        <v>0.0001547371972204058</v>
+      </c>
+      <c r="BU11">
+        <v>0.01681179510339105</v>
+      </c>
+      <c r="BV11">
+        <v>7.841609558153752E-05</v>
+      </c>
+      <c r="BW11">
+        <v>0.001148689777711724</v>
+      </c>
+      <c r="BX11">
+        <v>0.0005306683535292897</v>
+      </c>
+      <c r="BY11">
+        <v>0.0001653948725470855</v>
       </c>
     </row>
   </sheetData>
@@ -1785,15 +3261,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1900,10 +3376,133 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1915,985 +3514,2092 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03506179622947712</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2264780165275804</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.499545250898576</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7907579459795012</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7907579459795012</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7907579459795012</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7907579459795012</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9048902232915305</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9279939366774722</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9358484461978579</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9358484461978579</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9358484461978579</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9358484461978579</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9389001445460512</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9431207047700068</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.9431207047700068</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.9431207047700068</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9431207047700068</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9431207047700068</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9586548558929723</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9670912256295244</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9670912256295244</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9670912256295244</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9670912256295244</v>
+        <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0.03976681261422217</v>
+      </c>
+      <c r="AU2">
+        <v>0.2028401910345795</v>
+      </c>
+      <c r="AV2">
+        <v>0.4303064141082977</v>
+      </c>
+      <c r="AW2">
+        <v>0.6720827819600717</v>
+      </c>
+      <c r="AX2">
+        <v>0.672476697530453</v>
+      </c>
+      <c r="AY2">
+        <v>0.6799900392863698</v>
+      </c>
+      <c r="AZ2">
+        <v>0.6813098356752475</v>
+      </c>
+      <c r="BA2">
+        <v>0.7834343943974346</v>
+      </c>
+      <c r="BB2">
+        <v>0.8137706447628109</v>
+      </c>
+      <c r="BC2">
+        <v>0.8320808397662101</v>
+      </c>
+      <c r="BD2">
+        <v>0.8391943169288862</v>
+      </c>
+      <c r="BE2">
+        <v>0.8408578710203621</v>
+      </c>
+      <c r="BF2">
+        <v>0.8511361373083879</v>
+      </c>
+      <c r="BG2">
+        <v>0.8656586674894701</v>
+      </c>
+      <c r="BH2">
+        <v>0.8811030030154313</v>
+      </c>
+      <c r="BI2">
+        <v>0.8932188571754576</v>
+      </c>
+      <c r="BJ2">
+        <v>0.8936235223475836</v>
+      </c>
+      <c r="BK2">
+        <v>0.8987613279307537</v>
+      </c>
+      <c r="BL2">
+        <v>0.9004147703483599</v>
+      </c>
+      <c r="BM2">
+        <v>0.9247813992408341</v>
+      </c>
+      <c r="BN2">
+        <v>0.9435504695556426</v>
+      </c>
+      <c r="BO2">
+        <v>0.9441687944049774</v>
+      </c>
+      <c r="BP2">
+        <v>0.9474756296728202</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9475259331091227</v>
+      </c>
+      <c r="BR2">
+        <v>0.9855947974041945</v>
+      </c>
+      <c r="BS2">
+        <v>0.9890133591219609</v>
+      </c>
+      <c r="BT2">
+        <v>0.9913260691751928</v>
+      </c>
+      <c r="BU2">
+        <v>0.9921475628166339</v>
+      </c>
+      <c r="BV2">
+        <v>0.9928791466027006</v>
+      </c>
+      <c r="BW2">
+        <v>0.9928960631655738</v>
+      </c>
+      <c r="BX2">
+        <v>0.9969094840671955</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:77">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0.2426184141854546</v>
+      </c>
+      <c r="AU3">
+        <v>0.2485538931210556</v>
+      </c>
+      <c r="AV3">
+        <v>0.5454624205092897</v>
+      </c>
+      <c r="AW3">
+        <v>0.5863042988311269</v>
+      </c>
+      <c r="AX3">
+        <v>0.5884031987744633</v>
+      </c>
+      <c r="AY3">
+        <v>0.6132705196998935</v>
+      </c>
+      <c r="AZ3">
+        <v>0.7199330179208077</v>
+      </c>
+      <c r="BA3">
+        <v>0.761240085549628</v>
+      </c>
+      <c r="BB3">
+        <v>0.7888489054383115</v>
+      </c>
+      <c r="BC3">
+        <v>0.8072854251857762</v>
+      </c>
+      <c r="BD3">
+        <v>0.8273513911091676</v>
+      </c>
+      <c r="BE3">
+        <v>0.8283483532654043</v>
+      </c>
+      <c r="BF3">
+        <v>0.8315892830983694</v>
+      </c>
+      <c r="BG3">
+        <v>0.8572487414223405</v>
+      </c>
+      <c r="BH3">
+        <v>0.8572551985221883</v>
+      </c>
+      <c r="BI3">
+        <v>0.8656817951121734</v>
+      </c>
+      <c r="BJ3">
+        <v>0.8721498106261297</v>
+      </c>
+      <c r="BK3">
+        <v>0.8783253638355053</v>
+      </c>
+      <c r="BL3">
+        <v>0.8843097006681199</v>
+      </c>
+      <c r="BM3">
+        <v>0.9231853955383422</v>
+      </c>
+      <c r="BN3">
+        <v>0.9295709657974655</v>
+      </c>
+      <c r="BO3">
+        <v>0.9295719627107952</v>
+      </c>
+      <c r="BP3">
+        <v>0.9406067658514735</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9552400148248144</v>
+      </c>
+      <c r="BR3">
+        <v>0.9855816801629406</v>
+      </c>
+      <c r="BS3">
+        <v>0.9895656708165785</v>
+      </c>
+      <c r="BT3">
+        <v>0.9904975025372575</v>
+      </c>
+      <c r="BU3">
+        <v>0.9922979633893668</v>
+      </c>
+      <c r="BV3">
+        <v>0.993064034654863</v>
+      </c>
+      <c r="BW3">
+        <v>0.9938555264303401</v>
+      </c>
+      <c r="BX3">
+        <v>0.9992262129940278</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.2570602418000761</v>
+      </c>
+      <c r="AU4">
+        <v>0.3133658879226378</v>
+      </c>
+      <c r="AV4">
+        <v>0.5898248944099165</v>
+      </c>
+      <c r="AW4">
+        <v>0.6070727332242714</v>
+      </c>
+      <c r="AX4">
+        <v>0.6082074924225542</v>
+      </c>
+      <c r="AY4">
+        <v>0.6198470187191889</v>
+      </c>
+      <c r="AZ4">
+        <v>0.7529291534130205</v>
+      </c>
+      <c r="BA4">
+        <v>0.7904477208932253</v>
+      </c>
+      <c r="BB4">
+        <v>0.8297970797605653</v>
+      </c>
+      <c r="BC4">
+        <v>0.8373190123155818</v>
+      </c>
+      <c r="BD4">
+        <v>0.8482025605567447</v>
+      </c>
+      <c r="BE4">
+        <v>0.8575523169610151</v>
+      </c>
+      <c r="BF4">
+        <v>0.8579967498373625</v>
+      </c>
+      <c r="BG4">
+        <v>0.8753543491827241</v>
+      </c>
+      <c r="BH4">
+        <v>0.8841960604379734</v>
+      </c>
+      <c r="BI4">
+        <v>0.8870682069440855</v>
+      </c>
+      <c r="BJ4">
+        <v>0.889756751393129</v>
+      </c>
+      <c r="BK4">
+        <v>0.8897796560479133</v>
+      </c>
+      <c r="BL4">
+        <v>0.8997331001294071</v>
+      </c>
+      <c r="BM4">
+        <v>0.9292818020500834</v>
+      </c>
+      <c r="BN4">
+        <v>0.9293840833423295</v>
+      </c>
+      <c r="BO4">
+        <v>0.930069280878502</v>
+      </c>
+      <c r="BP4">
+        <v>0.9392076422261241</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9589078729917865</v>
+      </c>
+      <c r="BR4">
+        <v>0.9710956181395185</v>
+      </c>
+      <c r="BS4">
+        <v>0.9856776721377691</v>
+      </c>
+      <c r="BT4">
+        <v>0.9892530361717176</v>
+      </c>
+      <c r="BU4">
+        <v>0.9926708957067066</v>
+      </c>
+      <c r="BV4">
+        <v>0.9972875718909013</v>
+      </c>
+      <c r="BW4">
+        <v>0.9976929826588695</v>
+      </c>
+      <c r="BX4">
+        <v>0.9998671619086704</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.1548357756310594</v>
+      </c>
+      <c r="AU5">
+        <v>0.1612972384359902</v>
+      </c>
+      <c r="AV5">
+        <v>0.4760695041895759</v>
+      </c>
+      <c r="AW5">
+        <v>0.5739335558096648</v>
+      </c>
+      <c r="AX5">
+        <v>0.5741191493281543</v>
+      </c>
+      <c r="AY5">
+        <v>0.60116827096513</v>
+      </c>
+      <c r="AZ5">
+        <v>0.6470511683740889</v>
+      </c>
+      <c r="BA5">
+        <v>0.7516166187705853</v>
+      </c>
+      <c r="BB5">
+        <v>0.801131976074726</v>
+      </c>
+      <c r="BC5">
+        <v>0.8131696543848238</v>
+      </c>
+      <c r="BD5">
+        <v>0.8201681183758571</v>
+      </c>
+      <c r="BE5">
+        <v>0.8303004527506049</v>
+      </c>
+      <c r="BF5">
+        <v>0.8377765205567559</v>
+      </c>
+      <c r="BG5">
+        <v>0.851774526388172</v>
+      </c>
+      <c r="BH5">
+        <v>0.8551772123279027</v>
+      </c>
+      <c r="BI5">
+        <v>0.8677189300039474</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8721910487080275</v>
+      </c>
+      <c r="BK5">
+        <v>0.8728867847194023</v>
+      </c>
+      <c r="BL5">
+        <v>0.8762317330075922</v>
+      </c>
+      <c r="BM5">
+        <v>0.9210449057309338</v>
+      </c>
+      <c r="BN5">
+        <v>0.9261063127009265</v>
+      </c>
+      <c r="BO5">
+        <v>0.9264492785003776</v>
+      </c>
+      <c r="BP5">
+        <v>0.9395142883596452</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9462005355615517</v>
+      </c>
+      <c r="BR5">
+        <v>0.970674746648616</v>
+      </c>
+      <c r="BS5">
+        <v>0.9781096722045383</v>
+      </c>
+      <c r="BT5">
+        <v>0.9838443188328576</v>
+      </c>
+      <c r="BU5">
+        <v>0.9906036440772034</v>
+      </c>
+      <c r="BV5">
+        <v>0.9977419636386269</v>
+      </c>
+      <c r="BW5">
+        <v>0.9982921679144242</v>
+      </c>
+      <c r="BX5">
+        <v>0.9999940523014125</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.02198421042974398</v>
+      </c>
+      <c r="AT6">
+        <v>0.2211823666445443</v>
+      </c>
+      <c r="AU6">
+        <v>0.4375782772979406</v>
+      </c>
+      <c r="AV6">
+        <v>0.6128329566770143</v>
+      </c>
+      <c r="AW6">
+        <v>0.6155337307235009</v>
+      </c>
+      <c r="AX6">
+        <v>0.6295599115396234</v>
+      </c>
+      <c r="AY6">
+        <v>0.6312775777492321</v>
+      </c>
+      <c r="AZ6">
+        <v>0.7715872804180446</v>
+      </c>
+      <c r="BA6">
+        <v>0.8047421565685143</v>
+      </c>
+      <c r="BB6">
+        <v>0.8539243874258624</v>
+      </c>
+      <c r="BC6">
+        <v>0.8539244452094176</v>
+      </c>
+      <c r="BD6">
+        <v>0.8598581306766384</v>
+      </c>
+      <c r="BE6">
+        <v>0.8786097122456562</v>
+      </c>
+      <c r="BF6">
+        <v>0.8793244383226712</v>
+      </c>
+      <c r="BG6">
+        <v>0.8862993894106188</v>
+      </c>
+      <c r="BH6">
+        <v>0.8955288102586314</v>
+      </c>
+      <c r="BI6">
+        <v>0.8959371987773064</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9000730763454765</v>
+      </c>
+      <c r="BK6">
+        <v>0.9028165593288043</v>
+      </c>
+      <c r="BL6">
+        <v>0.9246588030348862</v>
+      </c>
+      <c r="BM6">
+        <v>0.9468654955537141</v>
+      </c>
+      <c r="BN6">
+        <v>0.9470388037932702</v>
+      </c>
+      <c r="BO6">
+        <v>0.9530576763293773</v>
+      </c>
+      <c r="BP6">
+        <v>0.9532670935438083</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9784952385844521</v>
+      </c>
+      <c r="BR6">
+        <v>0.978531538966515</v>
+      </c>
+      <c r="BS6">
+        <v>0.986737068703175</v>
+      </c>
+      <c r="BT6">
+        <v>0.9926901720894311</v>
+      </c>
+      <c r="BU6">
+        <v>0.9964599480279261</v>
+      </c>
+      <c r="BV6">
+        <v>0.9982362242513906</v>
+      </c>
+      <c r="BW6">
+        <v>0.9989699801670978</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0.03501377757843381</v>
+      </c>
+      <c r="AT7">
+        <v>0.1644476858572683</v>
+      </c>
+      <c r="AU7">
+        <v>0.1994740895609012</v>
+      </c>
+      <c r="AV7">
+        <v>0.3469651075051948</v>
+      </c>
+      <c r="AW7">
+        <v>0.4869792002984354</v>
+      </c>
+      <c r="AX7">
+        <v>0.5485209753224163</v>
+      </c>
+      <c r="AY7">
+        <v>0.5491418182536614</v>
+      </c>
+      <c r="AZ7">
+        <v>0.5745908779286156</v>
+      </c>
+      <c r="BA7">
+        <v>0.5876924548003412</v>
+      </c>
+      <c r="BB7">
+        <v>0.7842859484544145</v>
+      </c>
+      <c r="BC7">
+        <v>0.7936066284181972</v>
+      </c>
+      <c r="BD7">
+        <v>0.8072961203658047</v>
+      </c>
+      <c r="BE7">
+        <v>0.8311710463592975</v>
+      </c>
+      <c r="BF7">
+        <v>0.8314415819433788</v>
+      </c>
+      <c r="BG7">
+        <v>0.8497717660393059</v>
+      </c>
+      <c r="BH7">
+        <v>0.8504857391980754</v>
+      </c>
+      <c r="BI7">
+        <v>0.85076839686956</v>
+      </c>
+      <c r="BJ7">
+        <v>0.8537218926419315</v>
+      </c>
+      <c r="BK7">
+        <v>0.8537767527554345</v>
+      </c>
+      <c r="BL7">
+        <v>0.8770649704092657</v>
+      </c>
+      <c r="BM7">
+        <v>0.91651908163495</v>
+      </c>
+      <c r="BN7">
+        <v>0.9218159852850121</v>
+      </c>
+      <c r="BO7">
+        <v>0.938106948960444</v>
+      </c>
+      <c r="BP7">
+        <v>0.9421486867466272</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9680330371838325</v>
+      </c>
+      <c r="BR7">
+        <v>0.9889578528372316</v>
+      </c>
+      <c r="BS7">
+        <v>0.9896655810401357</v>
+      </c>
+      <c r="BT7">
+        <v>0.9906145999393358</v>
+      </c>
+      <c r="BU7">
+        <v>0.994093687849907</v>
+      </c>
+      <c r="BV7">
+        <v>0.9964495491878366</v>
+      </c>
+      <c r="BW7">
+        <v>0.9964555082812728</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0.06663966569400832</v>
+      </c>
+      <c r="AU8">
+        <v>0.1593982870096664</v>
+      </c>
+      <c r="AV8">
+        <v>0.3748949609853877</v>
+      </c>
+      <c r="AW8">
+        <v>0.5306043865557085</v>
+      </c>
+      <c r="AX8">
+        <v>0.5653099561210961</v>
+      </c>
+      <c r="AY8">
+        <v>0.5894074224709035</v>
+      </c>
+      <c r="AZ8">
+        <v>0.5941089745405257</v>
+      </c>
+      <c r="BA8">
+        <v>0.6396665521462869</v>
+      </c>
+      <c r="BB8">
+        <v>0.6484474478607082</v>
+      </c>
+      <c r="BC8">
+        <v>0.7713520983135419</v>
+      </c>
+      <c r="BD8">
+        <v>0.7757242354848047</v>
+      </c>
+      <c r="BE8">
+        <v>0.8066896240996182</v>
+      </c>
+      <c r="BF8">
+        <v>0.8231450026729854</v>
+      </c>
+      <c r="BG8">
+        <v>0.8231508982567718</v>
+      </c>
+      <c r="BH8">
+        <v>0.8429274431707418</v>
+      </c>
+      <c r="BI8">
+        <v>0.8440083650053058</v>
+      </c>
+      <c r="BJ8">
+        <v>0.8681710655379696</v>
+      </c>
+      <c r="BK8">
+        <v>0.8697394730198035</v>
+      </c>
+      <c r="BL8">
+        <v>0.8910175131938567</v>
+      </c>
+      <c r="BM8">
+        <v>0.8925970097738126</v>
+      </c>
+      <c r="BN8">
+        <v>0.9064936117369837</v>
+      </c>
+      <c r="BO8">
+        <v>0.9316492189540526</v>
+      </c>
+      <c r="BP8">
+        <v>0.9344050067969928</v>
+      </c>
+      <c r="BQ8">
+        <v>0.9428038190163845</v>
+      </c>
+      <c r="BR8">
+        <v>0.9668038628602544</v>
+      </c>
+      <c r="BS8">
+        <v>0.9758952114156814</v>
+      </c>
+      <c r="BT8">
+        <v>0.9808099473055768</v>
+      </c>
+      <c r="BU8">
+        <v>0.9877333420943938</v>
+      </c>
+      <c r="BV8">
+        <v>0.9988079472521818</v>
+      </c>
+      <c r="BW8">
+        <v>0.9992314513935234</v>
+      </c>
+      <c r="BX8">
+        <v>0.9993680433040024</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.2394610251412414</v>
+      </c>
+      <c r="E9">
+        <v>0.3419360640954622</v>
+      </c>
+      <c r="F9">
+        <v>0.394924233076575</v>
+      </c>
+      <c r="G9">
+        <v>0.5438553811882325</v>
+      </c>
+      <c r="H9">
+        <v>0.5496739469237741</v>
+      </c>
+      <c r="I9">
+        <v>0.5496739469237741</v>
+      </c>
+      <c r="J9">
+        <v>0.5496739469237741</v>
+      </c>
+      <c r="K9">
+        <v>0.5579899260454102</v>
+      </c>
+      <c r="L9">
+        <v>0.5752865877757123</v>
+      </c>
+      <c r="M9">
+        <v>0.5752865877757123</v>
+      </c>
+      <c r="N9">
+        <v>0.5762525924456282</v>
+      </c>
+      <c r="O9">
+        <v>0.5826074299779487</v>
+      </c>
+      <c r="P9">
+        <v>0.5826074299779487</v>
+      </c>
+      <c r="Q9">
+        <v>0.5826074299779487</v>
+      </c>
+      <c r="R9">
+        <v>0.6301356587268755</v>
+      </c>
+      <c r="S9">
+        <v>0.6528603342011895</v>
+      </c>
+      <c r="T9">
+        <v>0.6568715233479081</v>
+      </c>
+      <c r="U9">
+        <v>0.7119973079707491</v>
+      </c>
+      <c r="V9">
+        <v>0.8339923394055372</v>
+      </c>
+      <c r="W9">
+        <v>0.8919973312149545</v>
+      </c>
+      <c r="X9">
+        <v>0.9120812399391326</v>
+      </c>
+      <c r="Y9">
+        <v>0.9250339815088093</v>
+      </c>
+      <c r="Z9">
+        <v>0.9250339815088093</v>
+      </c>
+      <c r="AA9">
+        <v>0.9250339815088093</v>
+      </c>
+      <c r="AB9">
+        <v>0.9293122005971175</v>
+      </c>
+      <c r="AC9">
+        <v>0.9313657160793607</v>
+      </c>
+      <c r="AD9">
+        <v>0.9313657160793607</v>
+      </c>
+      <c r="AE9">
+        <v>0.9423223188097697</v>
+      </c>
+      <c r="AF9">
+        <v>0.9661402190935853</v>
+      </c>
+      <c r="AG9">
+        <v>0.9661402190935853</v>
+      </c>
+      <c r="AH9">
+        <v>0.971338871033665</v>
+      </c>
+      <c r="AI9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AD2">
+      <c r="AJ9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AE2">
+      <c r="AK9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AF2">
+      <c r="AL9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AG2">
+      <c r="AM9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AH2">
+      <c r="AN9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AO9">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AP9">
         <v>0.9999999999999999</v>
       </c>
+      <c r="AQ9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2774100873268577</v>
-      </c>
-      <c r="F3">
-        <v>0.2774100873268577</v>
-      </c>
-      <c r="G3">
-        <v>0.6185957394179249</v>
-      </c>
-      <c r="H3">
-        <v>0.6589753294458902</v>
-      </c>
-      <c r="I3">
-        <v>0.6589753294458902</v>
-      </c>
-      <c r="J3">
-        <v>0.6805893218408415</v>
-      </c>
-      <c r="K3">
-        <v>0.7982895686063413</v>
-      </c>
-      <c r="L3">
-        <v>0.8392156248143329</v>
-      </c>
-      <c r="M3">
-        <v>0.8640501049623476</v>
-      </c>
-      <c r="N3">
-        <v>0.8781097204585213</v>
-      </c>
-      <c r="O3">
-        <v>0.894083475454358</v>
-      </c>
-      <c r="P3">
-        <v>0.894083475454358</v>
-      </c>
-      <c r="Q3">
-        <v>0.894083475454358</v>
-      </c>
-      <c r="R3">
-        <v>0.9166280057867437</v>
-      </c>
-      <c r="S3">
-        <v>0.9166280057867437</v>
-      </c>
-      <c r="T3">
-        <v>0.9189287859268344</v>
-      </c>
-      <c r="U3">
-        <v>0.9189287859268344</v>
-      </c>
-      <c r="V3">
-        <v>0.9189287859268344</v>
-      </c>
-      <c r="W3">
-        <v>0.9189287859268344</v>
-      </c>
-      <c r="X3">
-        <v>0.9569986651684468</v>
-      </c>
-      <c r="Y3">
-        <v>0.9569986651684468</v>
-      </c>
-      <c r="Z3">
-        <v>0.9569986651684468</v>
-      </c>
-      <c r="AA3">
-        <v>0.9623633520860176</v>
-      </c>
-      <c r="AB3">
-        <v>0.9719551975360139</v>
-      </c>
-      <c r="AC3">
+    <row r="10" spans="1:77">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.2305549262446469</v>
+      </c>
+      <c r="AU10">
+        <v>0.2734808557212495</v>
+      </c>
+      <c r="AV10">
+        <v>0.5267368439044149</v>
+      </c>
+      <c r="AW10">
+        <v>0.548494384331871</v>
+      </c>
+      <c r="AX10">
+        <v>0.5627030553916307</v>
+      </c>
+      <c r="AY10">
+        <v>0.5698621089890565</v>
+      </c>
+      <c r="AZ10">
+        <v>0.6387754506594938</v>
+      </c>
+      <c r="BA10">
+        <v>0.6447711364867312</v>
+      </c>
+      <c r="BB10">
+        <v>0.6961801683492048</v>
+      </c>
+      <c r="BC10">
+        <v>0.7736453090860222</v>
+      </c>
+      <c r="BD10">
+        <v>0.7982800455104666</v>
+      </c>
+      <c r="BE10">
+        <v>0.7983953935455835</v>
+      </c>
+      <c r="BF10">
+        <v>0.8240786534709701</v>
+      </c>
+      <c r="BG10">
+        <v>0.8331160219899141</v>
+      </c>
+      <c r="BH10">
+        <v>0.8456748453270854</v>
+      </c>
+      <c r="BI10">
+        <v>0.8866342768170157</v>
+      </c>
+      <c r="BJ10">
+        <v>0.8901493518975755</v>
+      </c>
+      <c r="BK10">
+        <v>0.9081739090545256</v>
+      </c>
+      <c r="BL10">
+        <v>0.9085915534210603</v>
+      </c>
+      <c r="BM10">
+        <v>0.9118478039683685</v>
+      </c>
+      <c r="BN10">
+        <v>0.9464667913085508</v>
+      </c>
+      <c r="BO10">
+        <v>0.94983680497536</v>
+      </c>
+      <c r="BP10">
+        <v>0.9498667748169525</v>
+      </c>
+      <c r="BQ10">
+        <v>0.9596135250982635</v>
+      </c>
+      <c r="BR10">
+        <v>0.9697918009234794</v>
+      </c>
+      <c r="BS10">
+        <v>0.9703739513067061</v>
+      </c>
+      <c r="BT10">
+        <v>0.9720794598183155</v>
+      </c>
+      <c r="BU10">
+        <v>0.9993961210354518</v>
+      </c>
+      <c r="BV10">
+        <v>0.999611979279606</v>
+      </c>
+      <c r="BW10">
+        <v>0.9997091777464155</v>
+      </c>
+      <c r="BX10">
+        <v>0.9998255029816288</v>
+      </c>
+      <c r="BY10">
         <v>1</v>
       </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.3086237768961282</v>
-      </c>
-      <c r="F4">
-        <v>0.3671263631278797</v>
-      </c>
-      <c r="G4">
-        <v>0.699919161433487</v>
-      </c>
-      <c r="H4">
-        <v>0.7097594232203158</v>
-      </c>
-      <c r="I4">
-        <v>0.7097594232203158</v>
-      </c>
-      <c r="J4">
-        <v>0.7126122593902315</v>
-      </c>
-      <c r="K4">
-        <v>0.8667710704355046</v>
-      </c>
-      <c r="L4">
-        <v>0.9018667380695869</v>
-      </c>
-      <c r="M4">
-        <v>0.939243398176409</v>
-      </c>
-      <c r="N4">
-        <v>0.939243398176409</v>
-      </c>
-      <c r="O4">
-        <v>0.9411543573710425</v>
-      </c>
-      <c r="P4">
-        <v>0.9411543573710425</v>
-      </c>
-      <c r="Q4">
-        <v>0.9411543573710425</v>
-      </c>
-      <c r="R4">
-        <v>0.9511313703720127</v>
-      </c>
-      <c r="S4">
-        <v>0.9511313703720127</v>
-      </c>
-      <c r="T4">
-        <v>0.9511313703720127</v>
-      </c>
-      <c r="U4">
-        <v>0.9511313703720127</v>
-      </c>
-      <c r="V4">
-        <v>0.9511313703720127</v>
-      </c>
-      <c r="W4">
-        <v>0.9518835079761704</v>
-      </c>
-      <c r="X4">
-        <v>0.9770494788256945</v>
-      </c>
-      <c r="Y4">
-        <v>0.9770494788256945</v>
-      </c>
-      <c r="Z4">
-        <v>0.9770494788256945</v>
-      </c>
-      <c r="AA4">
-        <v>0.9770494788256945</v>
-      </c>
-      <c r="AB4">
-        <v>0.9899451884480593</v>
-      </c>
-      <c r="AC4">
-        <v>0.9934810533243335</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.184642696307576</v>
-      </c>
-      <c r="F5">
-        <v>0.184642696307576</v>
-      </c>
-      <c r="G5">
-        <v>0.5733655756281126</v>
-      </c>
-      <c r="H5">
-        <v>0.6853119169399303</v>
-      </c>
-      <c r="I5">
-        <v>0.6853119169399303</v>
-      </c>
-      <c r="J5">
-        <v>0.70689786669925</v>
-      </c>
-      <c r="K5">
-        <v>0.7525158581985556</v>
-      </c>
-      <c r="L5">
-        <v>0.8730132355352626</v>
-      </c>
-      <c r="M5">
-        <v>0.9232662736060419</v>
-      </c>
-      <c r="N5">
-        <v>0.9256975070208241</v>
-      </c>
-      <c r="O5">
-        <v>0.9256975070208241</v>
-      </c>
-      <c r="P5">
-        <v>0.9256975070208241</v>
-      </c>
-      <c r="Q5">
-        <v>0.9256975070208241</v>
-      </c>
-      <c r="R5">
-        <v>0.9306301333260559</v>
-      </c>
-      <c r="S5">
-        <v>0.9306301333260559</v>
-      </c>
-      <c r="T5">
-        <v>0.9337045248217075</v>
-      </c>
-      <c r="U5">
-        <v>0.9337045248217075</v>
-      </c>
-      <c r="V5">
-        <v>0.9337045248217075</v>
-      </c>
-      <c r="W5">
-        <v>0.9337045248217075</v>
-      </c>
-      <c r="X5">
-        <v>0.9779575394514631</v>
-      </c>
-      <c r="Y5">
-        <v>0.9779575394514631</v>
-      </c>
-      <c r="Z5">
-        <v>0.9779575394514631</v>
-      </c>
-      <c r="AA5">
-        <v>0.9816996557698837</v>
-      </c>
-      <c r="AB5">
-        <v>0.9816996557698837</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.01971310645070827</v>
-      </c>
-      <c r="E6">
-        <v>0.2351552708983104</v>
-      </c>
-      <c r="F6">
-        <v>0.4695919916773372</v>
-      </c>
-      <c r="G6">
-        <v>0.6585890919655339</v>
-      </c>
-      <c r="H6">
-        <v>0.6585890919655339</v>
-      </c>
-      <c r="I6">
-        <v>0.6695127228877488</v>
-      </c>
-      <c r="J6">
-        <v>0.6695127228877488</v>
-      </c>
-      <c r="K6">
-        <v>0.819913834903562</v>
-      </c>
-      <c r="L6">
-        <v>0.8519647055693268</v>
-      </c>
-      <c r="M6">
-        <v>0.9017174507972905</v>
-      </c>
-      <c r="N6">
-        <v>0.9017174507972905</v>
-      </c>
-      <c r="O6">
-        <v>0.9037030916281051</v>
-      </c>
-      <c r="P6">
-        <v>0.9198458278183886</v>
-      </c>
-      <c r="Q6">
-        <v>0.9198458278183886</v>
-      </c>
-      <c r="R6">
-        <v>0.9229815245218749</v>
-      </c>
-      <c r="S6">
-        <v>0.9286072354308752</v>
-      </c>
-      <c r="T6">
-        <v>0.9286072354308752</v>
-      </c>
-      <c r="U6">
-        <v>0.9286072354308752</v>
-      </c>
-      <c r="V6">
-        <v>0.9286072354308752</v>
-      </c>
-      <c r="W6">
-        <v>0.9481635426355299</v>
-      </c>
-      <c r="X6">
-        <v>0.9681223758518416</v>
-      </c>
-      <c r="Y6">
-        <v>0.9681223758518416</v>
-      </c>
-      <c r="Z6">
-        <v>0.9702021039999537</v>
-      </c>
-      <c r="AA6">
-        <v>0.9702021039999537</v>
-      </c>
-      <c r="AB6">
-        <v>0.9934980676732252</v>
-      </c>
-      <c r="AC6">
-        <v>0.9934980676732252</v>
-      </c>
-      <c r="AD6">
-        <v>0.9979929124879764</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.035017877003825</v>
-      </c>
-      <c r="E7">
-        <v>0.166432587152743</v>
-      </c>
-      <c r="F7">
-        <v>0.2014633546119725</v>
-      </c>
-      <c r="G7">
-        <v>0.3513132032699343</v>
-      </c>
-      <c r="H7">
-        <v>0.4935295960019411</v>
-      </c>
-      <c r="I7">
-        <v>0.5556308388564872</v>
-      </c>
-      <c r="J7">
-        <v>0.5556308388564872</v>
-      </c>
-      <c r="K7">
-        <v>0.5808837588645718</v>
-      </c>
-      <c r="L7">
-        <v>0.593530699292714</v>
-      </c>
-      <c r="M7">
-        <v>0.7935109928345708</v>
-      </c>
-      <c r="N7">
-        <v>0.8022978825969261</v>
-      </c>
-      <c r="O7">
-        <v>0.8155450462089687</v>
-      </c>
-      <c r="P7">
-        <v>0.8391908777634121</v>
-      </c>
-      <c r="Q7">
-        <v>0.8391908777634121</v>
-      </c>
-      <c r="R7">
-        <v>0.8571758872498556</v>
-      </c>
-      <c r="S7">
-        <v>0.8571758872498556</v>
-      </c>
-      <c r="T7">
-        <v>0.8571758872498556</v>
-      </c>
-      <c r="U7">
-        <v>0.8594622946727926</v>
-      </c>
-      <c r="V7">
-        <v>0.8594622946727926</v>
-      </c>
-      <c r="W7">
-        <v>0.882509135042796</v>
-      </c>
-      <c r="X7">
-        <v>0.9220603048786413</v>
-      </c>
-      <c r="Y7">
-        <v>0.9267391798453207</v>
-      </c>
-      <c r="Z7">
-        <v>0.9426422774644289</v>
-      </c>
-      <c r="AA7">
-        <v>0.9460397094437684</v>
-      </c>
-      <c r="AB7">
-        <v>0.9717370331046233</v>
-      </c>
-      <c r="AC7">
-        <v>0.9923709932275816</v>
-      </c>
-      <c r="AD7">
-        <v>0.9923709932275816</v>
-      </c>
-      <c r="AE7">
-        <v>0.9926109596929285</v>
-      </c>
-      <c r="AF7">
-        <v>0.9954339626201565</v>
-      </c>
-      <c r="AG7">
-        <v>0.9971102240241108</v>
-      </c>
-      <c r="AH7">
-        <v>0.9971102240241108</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.07458657839567853</v>
-      </c>
-      <c r="F8">
-        <v>0.1879925491323145</v>
-      </c>
-      <c r="G8">
-        <v>0.4838183949357299</v>
-      </c>
-      <c r="H8">
-        <v>0.6907852263721329</v>
-      </c>
-      <c r="I8">
-        <v>0.7179096387980805</v>
-      </c>
-      <c r="J8">
-        <v>0.7292677194194881</v>
-      </c>
-      <c r="K8">
-        <v>0.7292677194194881</v>
-      </c>
-      <c r="L8">
-        <v>0.7725209680787382</v>
-      </c>
-      <c r="M8">
-        <v>0.7725209680787382</v>
-      </c>
-      <c r="N8">
-        <v>0.9307315837464276</v>
-      </c>
-      <c r="O8">
-        <v>0.9307315837464276</v>
-      </c>
-      <c r="P8">
-        <v>0.9522971386954642</v>
-      </c>
-      <c r="Q8">
-        <v>0.9522971386954642</v>
-      </c>
-      <c r="R8">
-        <v>0.9522971386954642</v>
-      </c>
-      <c r="S8">
-        <v>0.9572332341915097</v>
-      </c>
-      <c r="T8">
-        <v>0.9572332341915097</v>
-      </c>
-      <c r="U8">
-        <v>0.9686882693533296</v>
-      </c>
-      <c r="V8">
-        <v>0.9686882693533296</v>
-      </c>
-      <c r="W8">
-        <v>0.9758559676149523</v>
-      </c>
-      <c r="X8">
-        <v>0.9758559676149523</v>
-      </c>
-      <c r="Y8">
-        <v>0.9758559676149523</v>
-      </c>
-      <c r="Z8">
-        <v>0.9887867139307026</v>
-      </c>
-      <c r="AA8">
-        <v>0.9887867139307026</v>
-      </c>
-      <c r="AB8">
-        <v>0.9887867139307026</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.1511499165889865</v>
-      </c>
-      <c r="F9">
-        <v>0.1511499165889865</v>
-      </c>
-      <c r="G9">
-        <v>0.4949301806340963</v>
-      </c>
-      <c r="H9">
-        <v>0.6291712450792223</v>
-      </c>
-      <c r="I9">
-        <v>0.6470112668825077</v>
-      </c>
-      <c r="J9">
-        <v>0.6470112668825077</v>
-      </c>
-      <c r="K9">
-        <v>0.6470112668825077</v>
-      </c>
-      <c r="L9">
-        <v>0.6470112668825077</v>
-      </c>
-      <c r="M9">
-        <v>0.6571950901217799</v>
-      </c>
-      <c r="N9">
-        <v>0.983483009981593</v>
-      </c>
-      <c r="O9">
-        <v>0.983483009981593</v>
-      </c>
-      <c r="P9">
-        <v>0.983483009981593</v>
-      </c>
-      <c r="Q9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="R9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="S9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="T9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="U9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="V9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="W9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="X9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="Y9">
-        <v>0.9989960875538951</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.2883909964921616</v>
-      </c>
-      <c r="F10">
-        <v>0.3285641917159811</v>
-      </c>
-      <c r="G10">
-        <v>0.6469868345842171</v>
-      </c>
-      <c r="H10">
-        <v>0.6591559841824679</v>
-      </c>
-      <c r="I10">
-        <v>0.6613385976440468</v>
-      </c>
-      <c r="J10">
-        <v>0.6613385976440468</v>
-      </c>
-      <c r="K10">
-        <v>0.7358910115735026</v>
-      </c>
-      <c r="L10">
-        <v>0.7358910115735026</v>
-      </c>
-      <c r="M10">
-        <v>0.7872866567300381</v>
-      </c>
-      <c r="N10">
-        <v>0.8731524006762277</v>
-      </c>
-      <c r="O10">
-        <v>0.8891278450183201</v>
-      </c>
-      <c r="P10">
-        <v>0.8891278450183201</v>
-      </c>
-      <c r="Q10">
-        <v>0.9064904001080323</v>
-      </c>
-      <c r="R10">
-        <v>0.9064904001080323</v>
-      </c>
-      <c r="S10">
-        <v>0.9064904001080323</v>
-      </c>
-      <c r="T10">
-        <v>0.9440620794955022</v>
-      </c>
-      <c r="U10">
-        <v>0.9440620794955022</v>
-      </c>
-      <c r="V10">
-        <v>0.9512927978515821</v>
-      </c>
-      <c r="W10">
-        <v>0.9512927978515821</v>
-      </c>
-      <c r="X10">
-        <v>0.9512927978515821</v>
-      </c>
-      <c r="Y10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="Z10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AA10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AB10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AC10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AD10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AE10">
-        <v>0.9804765887302157</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:77">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2905,99 +5611,222 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3443454889870581</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3772459015726147</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7263461915300888</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.7554959395586572</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7568320603088819</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7568320603088819</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8130998993589831</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8130998993589831</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8822641641297234</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9376411756276803</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9571601792597757</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9571601792597757</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9571601792597757</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.9571601792597757</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.9608655859938811</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.9700594697014909</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.9700594697014909</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.9780149034821674</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.9780149034821674</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.9780149034821674</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.9988622287209844</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0.2532194839539151</v>
+      </c>
+      <c r="AU11">
+        <v>0.2919099613701998</v>
+      </c>
+      <c r="AV11">
+        <v>0.5484046383059826</v>
+      </c>
+      <c r="AW11">
+        <v>0.5845115900792762</v>
+      </c>
+      <c r="AX11">
+        <v>0.6014600118890432</v>
+      </c>
+      <c r="AY11">
+        <v>0.6048868308155145</v>
+      </c>
+      <c r="AZ11">
+        <v>0.659673214587748</v>
+      </c>
+      <c r="BA11">
+        <v>0.6658950451487297</v>
+      </c>
+      <c r="BB11">
+        <v>0.7295647204139659</v>
+      </c>
+      <c r="BC11">
+        <v>0.7837374860421402</v>
+      </c>
+      <c r="BD11">
+        <v>0.8132106067352799</v>
+      </c>
+      <c r="BE11">
+        <v>0.8136307070694463</v>
+      </c>
+      <c r="BF11">
+        <v>0.829658784719428</v>
+      </c>
+      <c r="BG11">
+        <v>0.8402008871086648</v>
+      </c>
+      <c r="BH11">
+        <v>0.8587813159939593</v>
+      </c>
+      <c r="BI11">
+        <v>0.8811423071733666</v>
+      </c>
+      <c r="BJ11">
+        <v>0.884256564785539</v>
+      </c>
+      <c r="BK11">
+        <v>0.9057644892363231</v>
+      </c>
+      <c r="BL11">
+        <v>0.9107599644536265</v>
+      </c>
+      <c r="BM11">
+        <v>0.9133886510032458</v>
+      </c>
+      <c r="BN11">
+        <v>0.9437767436649425</v>
+      </c>
+      <c r="BO11">
+        <v>0.9507384591259356</v>
+      </c>
+      <c r="BP11">
+        <v>0.951323161190587</v>
+      </c>
+      <c r="BQ11">
+        <v>0.9672222843461304</v>
+      </c>
+      <c r="BR11">
+        <v>0.9786466460204907</v>
+      </c>
+      <c r="BS11">
+        <v>0.9811102986000189</v>
+      </c>
+      <c r="BT11">
+        <v>0.9812650357972392</v>
+      </c>
+      <c r="BU11">
+        <v>0.9980768309006303</v>
+      </c>
+      <c r="BV11">
+        <v>0.9981552469962118</v>
+      </c>
+      <c r="BW11">
+        <v>0.9993039367739236</v>
+      </c>
+      <c r="BX11">
+        <v>0.9998346051274529</v>
+      </c>
+      <c r="BY11">
         <v>1</v>
       </c>
     </row>
@@ -3016,63 +5845,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7907579459795012</v>
+        <v>0.6720827819600717</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3084,36 +5913,36 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6185957394179249</v>
+        <v>0.5454624205092897</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3125,36 +5954,36 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.699919161433487</v>
+        <v>0.5898248944099165</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3166,39 +5995,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5733655756281126</v>
+        <v>0.5739335558096648</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -3207,36 +6036,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6585890919655339</v>
+        <v>0.6128329566770143</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3248,36 +6077,36 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5556308388564872</v>
+        <v>0.5485209753224163</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3289,36 +6118,36 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6907852263721329</v>
+        <v>0.5306043865557085</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3330,36 +6159,36 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6291712450792223</v>
+        <v>0.5438553811882325</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3371,36 +6200,36 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6469868345842171</v>
+        <v>0.5267368439044149</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3412,36 +6241,36 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7263461915300888</v>
+        <v>0.5484046383059826</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3453,16 +6282,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3480,66 +6309,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7907579459795012</v>
+        <v>0.7834343943974346</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -3548,36 +6377,36 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7982895686063413</v>
+        <v>0.7199330179208077</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3589,39 +6418,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7097594232203158</v>
+        <v>0.7529291534130205</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -3630,39 +6459,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7516166187705853</v>
+      </c>
+      <c r="G5">
         <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.70689786669925</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -3671,36 +6500,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.819913834903562</v>
+        <v>0.7715872804180446</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3712,36 +6541,36 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7935109928345708</v>
+        <v>0.7842859484544145</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3753,39 +6582,39 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7179096387980805</v>
+        <v>0.7713520983135419</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>22</v>
@@ -3794,39 +6623,39 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.983483009981593</v>
+        <v>0.7119973079707491</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -3835,39 +6664,39 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7358910115735026</v>
+        <v>0.7736453090860222</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>22</v>
@@ -3876,39 +6705,39 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7263461915300888</v>
+        <v>0.7295647204139659</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>22</v>
@@ -3917,16 +6746,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3944,66 +6773,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9048902232915305</v>
+        <v>0.8137706447628109</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -4012,39 +6841,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8072854251857762</v>
+      </c>
+      <c r="G3">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8392156248143329</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -4053,39 +6882,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8297970797605653</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8667710704355046</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -4094,39 +6923,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8730132355352626</v>
+        <v>0.801131976074726</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -4135,39 +6964,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.819913834903562</v>
+        <v>0.8047421565685143</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -4176,39 +7005,39 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8022978825969261</v>
+        <v>0.8072961203658047</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -4217,39 +7046,39 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8066896240996182</v>
+      </c>
+      <c r="G8">
         <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9307315837464276</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
       </c>
       <c r="H8">
         <v>22</v>
@@ -4258,39 +7087,39 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.983483009981593</v>
+        <v>0.8339923394055372</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -4299,39 +7128,39 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8731524006762277</v>
+        <v>0.8240786534709701</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>22</v>
@@ -4340,39 +7169,39 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8130998993589831</v>
+        <v>0.8132106067352799</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>22</v>
@@ -4381,16 +7210,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4408,66 +7237,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9048902232915305</v>
+        <v>0.9004147703483599</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -4476,39 +7305,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9166280057867437</v>
+        <v>0.9231853955383422</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -4517,39 +7346,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9018667380695869</v>
+        <v>0.9292818020500834</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -4558,39 +7387,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9232662736060419</v>
+        <v>0.9210449057309338</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -4599,39 +7428,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9017174507972905</v>
+        <v>0.9000730763454765</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -4640,36 +7469,36 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9220603048786413</v>
+        <v>0.91651908163495</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -4681,39 +7510,39 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9307315837464276</v>
+        <v>0.9064936117369837</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>22</v>
@@ -4722,39 +7551,39 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.983483009981593</v>
+        <v>0.9120812399391326</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -4763,39 +7592,39 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9064904001080323</v>
+        <v>0.9081739090545256</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>22</v>
@@ -4804,39 +7633,39 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9376411756276803</v>
+        <v>0.9057644892363231</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>22</v>
@@ -4845,16 +7674,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/22_245-70R19.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03506179622947712</v>
+        <v>0.01543885601956916</v>
       </c>
       <c r="F2">
-        <v>0.1914162202981033</v>
+        <v>0.2103552930336584</v>
       </c>
       <c r="G2">
-        <v>0.2730672343709956</v>
+        <v>0.3121440645153663</v>
       </c>
       <c r="H2">
-        <v>0.2912126950809252</v>
+        <v>0.334764777492482</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1141322773120292</v>
+        <v>0.114010652356054</v>
       </c>
       <c r="M2">
-        <v>0.02310371338594172</v>
+        <v>0.0005315266282485961</v>
       </c>
       <c r="N2">
-        <v>0.007854509520385671</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003051698348193329</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.004220560223955581</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01553415112296549</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.008436369736552134</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03290877437047546</v>
+        <v>0.01275482995462161</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -802,37 +802,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2774100873268577</v>
+        <v>0.361869347121051</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3411856520910673</v>
+        <v>0.454269282917213</v>
       </c>
       <c r="H3">
-        <v>0.04037959002796526</v>
+        <v>0.01845251007500699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02161399239495134</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1177002467654997</v>
+        <v>0.1304769781401594</v>
       </c>
       <c r="L3">
-        <v>0.04092605620799158</v>
+        <v>0.01924424653607777</v>
       </c>
       <c r="M3">
-        <v>0.02483448014801472</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01405961549617374</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0159737549958366</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.02254453033238578</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002300780140090582</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03806987924161241</v>
+        <v>0.01510613236505256</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.005364686917570875</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.009591845449996288</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02804480246398625</v>
+        <v>0.0005815028454392156</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -912,37 +912,37 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3086237768961282</v>
+        <v>0.3663591757023174</v>
       </c>
       <c r="F4">
-        <v>0.05850258623175141</v>
+        <v>0.04244386755416245</v>
       </c>
       <c r="G4">
-        <v>0.3327927983056074</v>
+        <v>0.3976588668508201</v>
       </c>
       <c r="H4">
-        <v>0.009840261786828796</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002852836169915715</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.154158811045273</v>
+        <v>0.1663218782675265</v>
       </c>
       <c r="L4">
-        <v>0.03509566763408238</v>
+        <v>0.0121311250383298</v>
       </c>
       <c r="M4">
-        <v>0.03737666010682204</v>
+        <v>0.01508508658684372</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001910959194633446</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.009977013000970225</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0007521376041576887</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02516597084952408</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01289570962236482</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003535864876274059</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.006518946675666554</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1022,34 +1022,34 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184642696307576</v>
+        <v>0.2072826715792052</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3887228793205366</v>
+        <v>0.4728480737086099</v>
       </c>
       <c r="H5">
-        <v>0.1119463413118177</v>
+        <v>0.1126843795609917</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02158594975931967</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.04561799149930554</v>
+        <v>0.02637264350467423</v>
       </c>
       <c r="L5">
-        <v>0.120497377336707</v>
+        <v>0.1238116692715685</v>
       </c>
       <c r="M5">
-        <v>0.05025303807077927</v>
+        <v>0.03240413558033436</v>
       </c>
       <c r="N5">
-        <v>0.002431233414782215</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004932626305231861</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00307439149565154</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04425301462975564</v>
+        <v>0.02459642679461604</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1088,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003742116318420554</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01830034423011644</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1129,52 +1129,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01971310645070827</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2154421644476021</v>
+        <v>0.2670865716935281</v>
       </c>
       <c r="F6">
-        <v>0.2344367207790268</v>
+        <v>0.2942339672478891</v>
       </c>
       <c r="G6">
-        <v>0.1889971002881967</v>
+        <v>0.2292907630065879</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01092363092221482</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1504011120158132</v>
+        <v>0.1741286132748554</v>
       </c>
       <c r="L6">
-        <v>0.03205087066576482</v>
+        <v>0.004980107786026347</v>
       </c>
       <c r="M6">
-        <v>0.04975274522796373</v>
+        <v>0.03027997699111303</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001985640830814628</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01614273619028346</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003135696703486227</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00562571090900029</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1186,31 +1186,31 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01955630720465469</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01995883321631166</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.002079728148112107</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02329596367327161</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.00449484481475115</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002007087512023606</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1239,49 +1239,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.035017877003825</v>
+        <v>0.009206880016053114</v>
       </c>
       <c r="E7">
-        <v>0.131414710148918</v>
+        <v>0.182592077276877</v>
       </c>
       <c r="F7">
-        <v>0.03503076745922949</v>
+        <v>0.009230065571845443</v>
       </c>
       <c r="G7">
-        <v>0.1498498486579618</v>
+        <v>0.2157506367713586</v>
       </c>
       <c r="H7">
-        <v>0.1422163927320069</v>
+        <v>0.2020206394434238</v>
       </c>
       <c r="I7">
-        <v>0.06210124285454605</v>
+        <v>0.05792066632318526</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02525292000808459</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01264694042814218</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1999802935418569</v>
+        <v>0.3059182988343261</v>
       </c>
       <c r="N7">
-        <v>0.008786889762355339</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01324716361204254</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02364583155444334</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01798500948644358</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1290,49 +1290,49 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.00228640742293699</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02304684037000349</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.03955116983584527</v>
+        <v>0.01736073576293068</v>
       </c>
       <c r="Y7">
-        <v>0.004678874966679365</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.01590309761910808</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.003397431979339493</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.02569732366085497</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02063396012295828</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0002399664653468312</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.002823002927228025</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.001676261403954223</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.002889775975889229</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1352,40 +1352,40 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07458657839567853</v>
+        <v>0.06982474210657867</v>
       </c>
       <c r="F8">
-        <v>0.113405970736636</v>
+        <v>0.1196000145014112</v>
       </c>
       <c r="G8">
-        <v>0.2958258458034153</v>
+        <v>0.3535037008839555</v>
       </c>
       <c r="H8">
-        <v>0.2069668314364031</v>
+        <v>0.239566274815908</v>
       </c>
       <c r="I8">
-        <v>0.0271244124259475</v>
+        <v>0.00896747214103228</v>
       </c>
       <c r="J8">
-        <v>0.01135808062140764</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04325324865925004</v>
+        <v>0.02964830119350675</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1582106156676895</v>
+        <v>0.1770497392783739</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02156555494903655</v>
+        <v>0.001839755079233742</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1394,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.004936095496045535</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0114550351618199</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.00716769826162266</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01293074631575027</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01121328606929736</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1462,34 +1462,34 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1511499165889865</v>
+        <v>0.1432384624453765</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.008190979994868394</v>
       </c>
       <c r="G9">
-        <v>0.3437802640451098</v>
+        <v>0.3062122690540204</v>
       </c>
       <c r="H9">
-        <v>0.134241064445126</v>
+        <v>0.1289328245453287</v>
       </c>
       <c r="I9">
-        <v>0.01784002180328534</v>
+        <v>0.03045238642600875</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.007534284761460178</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01535893774744648</v>
       </c>
       <c r="M9">
-        <v>0.01018382323927228</v>
+        <v>0.02397490330558271</v>
       </c>
       <c r="N9">
-        <v>0.3262879198598131</v>
+        <v>0.2914129710408363</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01551307757230212</v>
+        <v>0.02848368853340001</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.001003912446104834</v>
+        <v>0.01620829214567164</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1572,43 +1572,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2883909964921616</v>
+        <v>0.3580680805000241</v>
       </c>
       <c r="F10">
-        <v>0.04017319522381945</v>
+        <v>0.02307778144885794</v>
       </c>
       <c r="G10">
-        <v>0.318422642868236</v>
+        <v>0.3985982525872552</v>
       </c>
       <c r="H10">
-        <v>0.01216914959825079</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00218261346157892</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07455241392945582</v>
+        <v>0.0694753592877501</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.05139564515653549</v>
+        <v>0.03822339888579219</v>
       </c>
       <c r="N10">
-        <v>0.08586574394618961</v>
+        <v>0.08474362685842715</v>
       </c>
       <c r="O10">
-        <v>0.01597544434209238</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01736255508971217</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.03757167938746997</v>
+        <v>0.01956682226884764</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.007230718356079749</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.02918379087863367</v>
+        <v>0.008246678163045819</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.01952341126978453</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1682,37 +1682,37 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3443454889870581</v>
+        <v>0.4076855925022059</v>
       </c>
       <c r="F11">
-        <v>0.03290041258555659</v>
+        <v>0.01587219167353925</v>
       </c>
       <c r="G11">
-        <v>0.3491002899574741</v>
+        <v>0.413667368679269</v>
       </c>
       <c r="H11">
-        <v>0.02914974802856839</v>
+        <v>0.01115366906139624</v>
       </c>
       <c r="I11">
-        <v>0.001336120750224708</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0562678390501011</v>
+        <v>0.04526957671963924</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.06916426477074038</v>
+        <v>0.06149392188675906</v>
       </c>
       <c r="N11">
-        <v>0.05537701149795687</v>
+        <v>0.04414887133944712</v>
       </c>
       <c r="O11">
-        <v>0.01951900363209532</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1724,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0037054067341054</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.009193883707609894</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.007955433780676447</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.02084732523881704</v>
+        <v>0.0007088081377440856</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.001137771279015649</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1915,100 +1915,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03506179622947712</v>
+        <v>0.01543885601956916</v>
       </c>
       <c r="F2">
-        <v>0.2264780165275804</v>
+        <v>0.2257941490532276</v>
       </c>
       <c r="G2">
-        <v>0.499545250898576</v>
+        <v>0.5379382135685939</v>
       </c>
       <c r="H2">
-        <v>0.7907579459795012</v>
+        <v>0.872702991061076</v>
       </c>
       <c r="I2">
-        <v>0.7907579459795012</v>
+        <v>0.872702991061076</v>
       </c>
       <c r="J2">
-        <v>0.7907579459795012</v>
+        <v>0.872702991061076</v>
       </c>
       <c r="K2">
-        <v>0.7907579459795012</v>
+        <v>0.872702991061076</v>
       </c>
       <c r="L2">
-        <v>0.9048902232915305</v>
+        <v>0.98671364341713</v>
       </c>
       <c r="M2">
-        <v>0.9279939366774722</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="N2">
-        <v>0.9358484461978579</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="O2">
-        <v>0.9358484461978579</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="P2">
-        <v>0.9358484461978579</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="Q2">
-        <v>0.9358484461978579</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="R2">
-        <v>0.9389001445460512</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="S2">
-        <v>0.9431207047700068</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="T2">
-        <v>0.9431207047700068</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="U2">
-        <v>0.9431207047700068</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="V2">
-        <v>0.9431207047700068</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="W2">
-        <v>0.9431207047700068</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="X2">
-        <v>0.9586548558929723</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="Y2">
-        <v>0.9670912256295244</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="Z2">
-        <v>0.9670912256295244</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="AA2">
-        <v>0.9670912256295244</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="AB2">
-        <v>0.9670912256295244</v>
+        <v>0.9872451700453786</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,76 +2025,76 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2774100873268577</v>
+        <v>0.361869347121051</v>
       </c>
       <c r="F3">
-        <v>0.2774100873268577</v>
+        <v>0.361869347121051</v>
       </c>
       <c r="G3">
-        <v>0.6185957394179249</v>
+        <v>0.816138630038264</v>
       </c>
       <c r="H3">
-        <v>0.6589753294458902</v>
+        <v>0.8345911401132711</v>
       </c>
       <c r="I3">
-        <v>0.6589753294458902</v>
+        <v>0.8345911401132711</v>
       </c>
       <c r="J3">
-        <v>0.6805893218408415</v>
+        <v>0.8345911401132711</v>
       </c>
       <c r="K3">
-        <v>0.7982895686063413</v>
+        <v>0.9650681182534304</v>
       </c>
       <c r="L3">
-        <v>0.8392156248143329</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="M3">
-        <v>0.8640501049623476</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="N3">
-        <v>0.8781097204585213</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="O3">
-        <v>0.894083475454358</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="P3">
-        <v>0.894083475454358</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="Q3">
-        <v>0.894083475454358</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="R3">
-        <v>0.9166280057867437</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="S3">
-        <v>0.9166280057867437</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="T3">
-        <v>0.9189287859268344</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="U3">
-        <v>0.9189287859268344</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="V3">
-        <v>0.9189287859268344</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="W3">
-        <v>0.9189287859268344</v>
+        <v>0.9843123647895082</v>
       </c>
       <c r="X3">
-        <v>0.9569986651684468</v>
+        <v>0.9994184971545608</v>
       </c>
       <c r="Y3">
-        <v>0.9569986651684468</v>
+        <v>0.9994184971545608</v>
       </c>
       <c r="Z3">
-        <v>0.9569986651684468</v>
+        <v>0.9994184971545608</v>
       </c>
       <c r="AA3">
-        <v>0.9623633520860176</v>
+        <v>0.9994184971545608</v>
       </c>
       <c r="AB3">
-        <v>0.9719551975360139</v>
+        <v>0.9994184971545608</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2135,79 +2135,79 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3086237768961282</v>
+        <v>0.3663591757023174</v>
       </c>
       <c r="F4">
-        <v>0.3671263631278797</v>
+        <v>0.4088030432564798</v>
       </c>
       <c r="G4">
-        <v>0.699919161433487</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="H4">
-        <v>0.7097594232203158</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="I4">
-        <v>0.7097594232203158</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="J4">
-        <v>0.7126122593902315</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="K4">
-        <v>0.8667710704355046</v>
+        <v>0.9727837883748265</v>
       </c>
       <c r="L4">
-        <v>0.9018667380695869</v>
+        <v>0.9849149134131563</v>
       </c>
       <c r="M4">
-        <v>0.939243398176409</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.939243398176409</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.9411543573710425</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9411543573710425</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9411543573710425</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.9511313703720127</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9511313703720127</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.9511313703720127</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9511313703720127</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9511313703720127</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9518835079761704</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9770494788256945</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9770494788256945</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9770494788256945</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9770494788256945</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9899451884480593</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9934810533243335</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -2245,76 +2245,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.184642696307576</v>
+        <v>0.2072826715792052</v>
       </c>
       <c r="F5">
-        <v>0.184642696307576</v>
+        <v>0.2072826715792052</v>
       </c>
       <c r="G5">
-        <v>0.5733655756281126</v>
+        <v>0.6801307452878151</v>
       </c>
       <c r="H5">
-        <v>0.6853119169399303</v>
+        <v>0.7928151248488068</v>
       </c>
       <c r="I5">
-        <v>0.6853119169399303</v>
+        <v>0.7928151248488068</v>
       </c>
       <c r="J5">
-        <v>0.70689786669925</v>
+        <v>0.7928151248488068</v>
       </c>
       <c r="K5">
-        <v>0.7525158581985556</v>
+        <v>0.8191877683534811</v>
       </c>
       <c r="L5">
-        <v>0.8730132355352626</v>
+        <v>0.9429994376250496</v>
       </c>
       <c r="M5">
-        <v>0.9232662736060419</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="N5">
-        <v>0.9256975070208241</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="O5">
-        <v>0.9256975070208241</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="P5">
-        <v>0.9256975070208241</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="Q5">
-        <v>0.9256975070208241</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="R5">
-        <v>0.9306301333260559</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="S5">
-        <v>0.9306301333260559</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="T5">
-        <v>0.9337045248217075</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="U5">
-        <v>0.9337045248217075</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="V5">
-        <v>0.9337045248217075</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="W5">
-        <v>0.9337045248217075</v>
+        <v>0.975403573205384</v>
       </c>
       <c r="X5">
-        <v>0.9779575394514631</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9779575394514631</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9779575394514631</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9816996557698837</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9816996557698837</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01971310645070827</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2351552708983104</v>
+        <v>0.2670865716935281</v>
       </c>
       <c r="F6">
-        <v>0.4695919916773372</v>
+        <v>0.5613205389414172</v>
       </c>
       <c r="G6">
-        <v>0.6585890919655339</v>
+        <v>0.7906113019480051</v>
       </c>
       <c r="H6">
-        <v>0.6585890919655339</v>
+        <v>0.7906113019480051</v>
       </c>
       <c r="I6">
-        <v>0.6695127228877488</v>
+        <v>0.7906113019480051</v>
       </c>
       <c r="J6">
-        <v>0.6695127228877488</v>
+        <v>0.7906113019480051</v>
       </c>
       <c r="K6">
-        <v>0.819913834903562</v>
+        <v>0.9647399152228605</v>
       </c>
       <c r="L6">
-        <v>0.8519647055693268</v>
+        <v>0.9697200230088868</v>
       </c>
       <c r="M6">
-        <v>0.9017174507972905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N6">
-        <v>0.9017174507972905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>0.9037030916281051</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P6">
-        <v>0.9198458278183886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q6">
-        <v>0.9198458278183886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R6">
-        <v>0.9229815245218749</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S6">
-        <v>0.9286072354308752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T6">
-        <v>0.9286072354308752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U6">
-        <v>0.9286072354308752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V6">
-        <v>0.9286072354308752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W6">
-        <v>0.9481635426355299</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X6">
-        <v>0.9681223758518416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.9681223758518416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.9702021039999537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.9702021039999537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.9934980676732252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9934980676732252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.9979929124879764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,97 +2462,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.035017877003825</v>
+        <v>0.009206880016053114</v>
       </c>
       <c r="E7">
-        <v>0.166432587152743</v>
+        <v>0.1917989572929301</v>
       </c>
       <c r="F7">
-        <v>0.2014633546119725</v>
+        <v>0.2010290228647756</v>
       </c>
       <c r="G7">
-        <v>0.3513132032699343</v>
+        <v>0.4167796596361342</v>
       </c>
       <c r="H7">
-        <v>0.4935295960019411</v>
+        <v>0.618800299079558</v>
       </c>
       <c r="I7">
-        <v>0.5556308388564872</v>
+        <v>0.6767209654027433</v>
       </c>
       <c r="J7">
-        <v>0.5556308388564872</v>
+        <v>0.6767209654027433</v>
       </c>
       <c r="K7">
-        <v>0.5808837588645718</v>
+        <v>0.6767209654027433</v>
       </c>
       <c r="L7">
-        <v>0.593530699292714</v>
+        <v>0.6767209654027433</v>
       </c>
       <c r="M7">
-        <v>0.7935109928345708</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="N7">
-        <v>0.8022978825969261</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="O7">
-        <v>0.8155450462089687</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="P7">
-        <v>0.8391908777634121</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="Q7">
-        <v>0.8391908777634121</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="R7">
-        <v>0.8571758872498556</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="S7">
-        <v>0.8571758872498556</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="T7">
-        <v>0.8571758872498556</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="U7">
-        <v>0.8594622946727926</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="V7">
-        <v>0.8594622946727926</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="W7">
-        <v>0.882509135042796</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="X7">
-        <v>0.9220603048786413</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9267391798453207</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9426422774644289</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9460397094437684</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9717370331046233</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9923709932275816</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9923709932275816</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9926109596929285</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9954339626201565</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9971102240241108</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9971102240241108</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2575,76 +2575,76 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07458657839567853</v>
+        <v>0.06982474210657867</v>
       </c>
       <c r="F8">
-        <v>0.1879925491323145</v>
+        <v>0.1894247566079899</v>
       </c>
       <c r="G8">
-        <v>0.4838183949357299</v>
+        <v>0.5429284574919454</v>
       </c>
       <c r="H8">
-        <v>0.6907852263721329</v>
+        <v>0.7824947323078535</v>
       </c>
       <c r="I8">
-        <v>0.7179096387980805</v>
+        <v>0.7914622044488858</v>
       </c>
       <c r="J8">
-        <v>0.7292677194194881</v>
+        <v>0.7914622044488858</v>
       </c>
       <c r="K8">
-        <v>0.7292677194194881</v>
+        <v>0.7914622044488858</v>
       </c>
       <c r="L8">
-        <v>0.7725209680787382</v>
+        <v>0.8211105056423925</v>
       </c>
       <c r="M8">
-        <v>0.7725209680787382</v>
+        <v>0.8211105056423925</v>
       </c>
       <c r="N8">
-        <v>0.9307315837464276</v>
+        <v>0.9981602449207664</v>
       </c>
       <c r="O8">
-        <v>0.9307315837464276</v>
+        <v>0.9981602449207664</v>
       </c>
       <c r="P8">
-        <v>0.9522971386954642</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.9522971386954642</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.9522971386954642</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9572332341915097</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.9572332341915097</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9686882693533296</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9686882693533296</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9758559676149523</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9758559676149523</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9758559676149523</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9887867139307026</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9887867139307026</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9887867139307026</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -2685,67 +2685,67 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1511499165889865</v>
+        <v>0.1432384624453765</v>
       </c>
       <c r="F9">
-        <v>0.1511499165889865</v>
+        <v>0.1514294424402449</v>
       </c>
       <c r="G9">
-        <v>0.4949301806340963</v>
+        <v>0.4576417114942652</v>
       </c>
       <c r="H9">
-        <v>0.6291712450792223</v>
+        <v>0.586574536039594</v>
       </c>
       <c r="I9">
-        <v>0.6470112668825077</v>
+        <v>0.6170269224656028</v>
       </c>
       <c r="J9">
-        <v>0.6470112668825077</v>
+        <v>0.624561207227063</v>
       </c>
       <c r="K9">
-        <v>0.6470112668825077</v>
+        <v>0.624561207227063</v>
       </c>
       <c r="L9">
-        <v>0.6470112668825077</v>
+        <v>0.6399201449745094</v>
       </c>
       <c r="M9">
-        <v>0.6571950901217799</v>
+        <v>0.6638950482800922</v>
       </c>
       <c r="N9">
-        <v>0.983483009981593</v>
+        <v>0.9553080193209285</v>
       </c>
       <c r="O9">
-        <v>0.983483009981593</v>
+        <v>0.9553080193209285</v>
       </c>
       <c r="P9">
-        <v>0.983483009981593</v>
+        <v>0.9553080193209285</v>
       </c>
       <c r="Q9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="R9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="S9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="T9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="U9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="V9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="W9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="X9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="Y9">
-        <v>0.9989960875538951</v>
+        <v>0.9837917078543285</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -2795,85 +2795,85 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2883909964921616</v>
+        <v>0.3580680805000241</v>
       </c>
       <c r="F10">
-        <v>0.3285641917159811</v>
+        <v>0.381145861948882</v>
       </c>
       <c r="G10">
-        <v>0.6469868345842171</v>
+        <v>0.7797441145361372</v>
       </c>
       <c r="H10">
-        <v>0.6591559841824679</v>
+        <v>0.7797441145361372</v>
       </c>
       <c r="I10">
-        <v>0.6613385976440468</v>
+        <v>0.7797441145361372</v>
       </c>
       <c r="J10">
-        <v>0.6613385976440468</v>
+        <v>0.7797441145361372</v>
       </c>
       <c r="K10">
-        <v>0.7358910115735026</v>
+        <v>0.8492194738238873</v>
       </c>
       <c r="L10">
-        <v>0.7358910115735026</v>
+        <v>0.8492194738238873</v>
       </c>
       <c r="M10">
-        <v>0.7872866567300381</v>
+        <v>0.8874428727096795</v>
       </c>
       <c r="N10">
-        <v>0.8731524006762277</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="O10">
-        <v>0.8891278450183201</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="P10">
-        <v>0.8891278450183201</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="Q10">
-        <v>0.9064904001080323</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="R10">
-        <v>0.9064904001080323</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="S10">
-        <v>0.9064904001080323</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="T10">
-        <v>0.9440620794955022</v>
+        <v>0.9917533218369543</v>
       </c>
       <c r="U10">
-        <v>0.9440620794955022</v>
+        <v>0.9917533218369543</v>
       </c>
       <c r="V10">
-        <v>0.9512927978515821</v>
+        <v>0.9917533218369543</v>
       </c>
       <c r="W10">
-        <v>0.9512927978515821</v>
+        <v>0.9917533218369543</v>
       </c>
       <c r="X10">
-        <v>0.9512927978515821</v>
+        <v>0.9917533218369543</v>
       </c>
       <c r="Y10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9804765887302157</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2905,100 +2905,100 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3443454889870581</v>
+        <v>0.4076855925022059</v>
       </c>
       <c r="F11">
-        <v>0.3772459015726147</v>
+        <v>0.4235577841757451</v>
       </c>
       <c r="G11">
-        <v>0.7263461915300888</v>
+        <v>0.8372251528550141</v>
       </c>
       <c r="H11">
-        <v>0.7554959395586572</v>
+        <v>0.8483788219164103</v>
       </c>
       <c r="I11">
-        <v>0.7568320603088819</v>
+        <v>0.8483788219164103</v>
       </c>
       <c r="J11">
-        <v>0.7568320603088819</v>
+        <v>0.8483788219164103</v>
       </c>
       <c r="K11">
-        <v>0.8130998993589831</v>
+        <v>0.8936483986360496</v>
       </c>
       <c r="L11">
-        <v>0.8130998993589831</v>
+        <v>0.8936483986360496</v>
       </c>
       <c r="M11">
-        <v>0.8822641641297234</v>
+        <v>0.9551423205228087</v>
       </c>
       <c r="N11">
-        <v>0.9376411756276803</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="O11">
-        <v>0.9571601792597757</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="P11">
-        <v>0.9571601792597757</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="Q11">
-        <v>0.9571601792597757</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="R11">
-        <v>0.9571601792597757</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="S11">
-        <v>0.9608655859938811</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="T11">
-        <v>0.9700594697014909</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="U11">
-        <v>0.9700594697014909</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="V11">
-        <v>0.9780149034821674</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="W11">
-        <v>0.9780149034821674</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="X11">
-        <v>0.9780149034821674</v>
+        <v>0.9992911918622558</v>
       </c>
       <c r="Y11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.9988622287209844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5379382135685939</v>
       </c>
       <c r="F2">
-        <v>0.7907579459795012</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>22</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.816138630038264</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6185957394179249</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>22</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.8064619101073</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.699919161433487</v>
-      </c>
       <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6801307452878151</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5733655756281126</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>22</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5613205389414172</v>
       </c>
       <c r="F6">
-        <v>0.6585890919655339</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>22</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.618800299079558</v>
       </c>
       <c r="F7">
-        <v>0.5556308388564872</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>22</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5429284574919454</v>
       </c>
       <c r="F8">
-        <v>0.6907852263721329</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>22</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.586574536039594</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6291712450792223</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>22</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.7797441145361372</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6469868345842171</v>
-      </c>
       <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>22</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.8372251528550141</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7263461915300888</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>22</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.872702991061076</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7907579459795012</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>22</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.816138630038264</v>
       </c>
       <c r="F3">
-        <v>0.7982895686063413</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>22</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="F4">
-        <v>0.7097594232203158</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7928151248488068</v>
       </c>
       <c r="F5">
-        <v>0.70689786669925</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>22</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7906113019480051</v>
       </c>
       <c r="F6">
-        <v>0.819913834903562</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>22</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.9826392642370694</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7935109928345708</v>
-      </c>
       <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>22</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7824947323078535</v>
       </c>
       <c r="F8">
-        <v>0.7179096387980805</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>22</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.9553080193209285</v>
+      </c>
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.983483009981593</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>22</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7797441145361372</v>
       </c>
       <c r="F10">
-        <v>0.7358910115735026</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>22</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.8372251528550141</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7263461915300888</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>22</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.872702991061076</v>
       </c>
       <c r="F2">
-        <v>0.9048902232915305</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>22</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.816138630038264</v>
       </c>
       <c r="F3">
-        <v>0.8392156248143329</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>22</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8064619101073</v>
       </c>
       <c r="F4">
-        <v>0.8667710704355046</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8191877683534811</v>
       </c>
       <c r="F5">
-        <v>0.8730132355352626</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>22</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.9647399152228605</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.819913834903562</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>22</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="F7">
-        <v>0.8022978825969261</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>22</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8211105056423925</v>
       </c>
       <c r="F8">
-        <v>0.9307315837464276</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>22</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.9553080193209285</v>
+      </c>
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.983483009981593</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>22</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8492194738238873</v>
       </c>
       <c r="F10">
-        <v>0.8731524006762277</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>22</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8372251528550141</v>
       </c>
       <c r="F11">
-        <v>0.8130998993589831</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>22</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.98671364341713</v>
+      </c>
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9048902232915305</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>22</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9650681182534304</v>
       </c>
       <c r="F3">
-        <v>0.9166280057867437</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>22</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9727837883748265</v>
       </c>
       <c r="F4">
-        <v>0.9018667380695869</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9429994376250496</v>
       </c>
       <c r="F5">
-        <v>0.9232662736060419</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>22</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9647399152228605</v>
       </c>
       <c r="F6">
-        <v>0.9017174507972905</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>22</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9826392642370694</v>
       </c>
       <c r="F7">
-        <v>0.9220603048786413</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>22</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9981602449207664</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9307315837464276</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>22</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9553080193209285</v>
+      </c>
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.983483009981593</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>22</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9721864995681067</v>
       </c>
       <c r="F10">
-        <v>0.9064904001080323</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>22</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9551423205228087</v>
       </c>
       <c r="F11">
-        <v>0.9376411756276803</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>22</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
